--- a/$META.xlsx
+++ b/$META.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACD6AA1-0291-4742-975A-DFE38FF02FD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7CD329-D601-4280-8751-337CD0952FFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{6EC70FC0-D9EC-4C7C-8437-462DE9BE4D5C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6EC70FC0-D9EC-4C7C-8437-462DE9BE4D5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="2691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="2692">
   <si>
     <t>$META</t>
   </si>
@@ -8112,6 +8112,9 @@
   <si>
     <t>FCF per Share</t>
   </si>
+  <si>
+    <t>Employ.</t>
+  </si>
 </sst>
 </file>
 
@@ -8120,7 +8123,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0\x"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="172" formatCode="0\x"/>
+    <numFmt numFmtId="166" formatCode="0\x"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -8414,7 +8417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8546,48 +8549,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -8644,12 +8605,61 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9138,8 +9148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A734399-F1ED-44FB-96F3-BE2465786A06}">
   <dimension ref="A2:V40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9158,29 +9168,29 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="G5" s="87" t="s">
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
+      <c r="G5" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="S5" s="90" t="s">
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="113"/>
+      <c r="S5" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="114"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -9395,11 +9405,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="89"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="113"/>
       <c r="G15" s="8"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -9418,10 +9428,10 @@
       <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="82"/>
+      <c r="D16" s="118"/>
       <c r="G16" s="18">
         <v>44593</v>
       </c>
@@ -9444,10 +9454,10 @@
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="118"/>
       <c r="G17" s="8"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -9466,10 +9476,10 @@
       <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="82"/>
+      <c r="D18" s="118"/>
       <c r="G18" s="8"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -9488,10 +9498,10 @@
       <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="92"/>
+      <c r="D19" s="120"/>
       <c r="G19" s="18">
         <v>44470</v>
       </c>
@@ -9533,16 +9543,16 @@
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
-      <c r="S21" s="101" t="s">
+      <c r="S21" s="87" t="s">
         <v>2685</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="113"/>
       <c r="G22" s="8"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -9553,7 +9563,7 @@
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="11"/>
-      <c r="S22" s="101" t="s">
+      <c r="S22" s="87" t="s">
         <v>2686</v>
       </c>
     </row>
@@ -9561,10 +9571,10 @@
       <c r="B23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="82"/>
+      <c r="D23" s="118"/>
       <c r="G23" s="18">
         <v>41699</v>
       </c>
@@ -9584,10 +9594,10 @@
       <c r="B24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="117">
         <v>2004</v>
       </c>
-      <c r="D24" s="82"/>
+      <c r="D24" s="118"/>
       <c r="G24" s="8"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -9603,10 +9613,10 @@
       <c r="B25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="81">
+      <c r="C25" s="117">
         <v>2012</v>
       </c>
-      <c r="D25" s="82"/>
+      <c r="D25" s="118"/>
       <c r="G25" s="18">
         <v>41671</v>
       </c>
@@ -9624,8 +9634,8 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B26" s="8"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="82"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="118"/>
       <c r="G26" s="8"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -9641,8 +9651,11 @@
       <c r="B27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="82"/>
+      <c r="C27" s="127">
+        <f>+'Financial Model'!Y35</f>
+        <v>3.9</v>
+      </c>
+      <c r="D27" s="118"/>
       <c r="G27" s="8"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -9655,9 +9668,14 @@
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B28" s="8"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="82"/>
+      <c r="B28" s="125" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C28" s="126">
+        <f>+'Financial Model'!Y41</f>
+        <v>72404</v>
+      </c>
+      <c r="D28" s="118"/>
       <c r="G28" s="18">
         <v>41000</v>
       </c>
@@ -9675,8 +9693,8 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B29" s="8"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="118"/>
       <c r="G29" s="8"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -9692,10 +9710,10 @@
       <c r="B30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="86"/>
+      <c r="D30" s="122"/>
       <c r="G30" s="8"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -9729,31 +9747,31 @@
       <c r="P31" s="13"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="89"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="113"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="83">
+      <c r="C35" s="115">
         <f>+C6/'Financial Model'!Y73</f>
         <v>8.8425616760571089</v>
       </c>
-      <c r="D35" s="84"/>
+      <c r="D35" s="116"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="83">
+      <c r="C36" s="115">
         <f>+C8/SUM('Financial Model'!V8:Y8)</f>
         <v>9.3124609062453985</v>
       </c>
-      <c r="D36" s="84"/>
+      <c r="D36" s="116"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
@@ -9766,11 +9784,11 @@
       <c r="B38" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="83">
+      <c r="C38" s="115">
         <f>C6/SUM('Financial Model'!V19:Y19)</f>
         <v>26.360609283332796</v>
       </c>
-      <c r="D38" s="84"/>
+      <c r="D38" s="116"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
@@ -9786,6 +9804,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="G5:P5"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="C36:D36"/>
@@ -9801,12 +9825,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C30:D30" r:id="rId1" display="Link" xr:uid="{E34671E5-015B-4F6E-A89E-58DC4BD2B98C}"/>
@@ -9822,16 +9840,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42924973-B92E-4576-933D-70DBEDDEA012}">
   <dimension ref="A1:CK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="Q18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC23" sqref="AC23"/>
+      <selection pane="bottomRight" activeCell="AF27" sqref="AF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="96" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="82" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="25" width="9.140625" style="1"/>
     <col min="26" max="26" width="9.140625" style="66"/>
@@ -9845,7 +9863,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="96"/>
+      <c r="A1" s="82"/>
       <c r="C1" s="19" t="s">
         <v>137</v>
       </c>
@@ -9965,7 +9983,7 @@
       </c>
     </row>
     <row r="2" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
+      <c r="A2" s="81"/>
       <c r="B2" s="32"/>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -10054,7 +10072,7 @@
       <c r="AQ2" s="50"/>
     </row>
     <row r="3" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
+      <c r="A3" s="81"/>
       <c r="B3" s="32"/>
       <c r="O3" s="38">
         <v>46478</v>
@@ -10111,8 +10129,8 @@
       <c r="AQ3" s="50"/>
     </row>
     <row r="4" spans="1:43" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="96"/>
-      <c r="B4" s="102" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="88" t="s">
         <v>2672</v>
       </c>
       <c r="C4" s="48"/>
@@ -10199,8 +10217,8 @@
       <c r="AQ4" s="48"/>
     </row>
     <row r="5" spans="1:43" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="96"/>
-      <c r="B5" s="102" t="s">
+      <c r="A5" s="82"/>
+      <c r="B5" s="88" t="s">
         <v>2673</v>
       </c>
       <c r="C5" s="48"/>
@@ -10286,114 +10304,114 @@
       <c r="AP5" s="48"/>
       <c r="AQ5" s="48"/>
     </row>
-    <row r="6" spans="1:43" s="106" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96"/>
-      <c r="B6" s="103" t="s">
+    <row r="6" spans="1:43" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="82"/>
+      <c r="B6" s="89" t="s">
         <v>2674</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104">
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90">
         <f t="shared" ref="K6:X6" si="0">K4+K5</f>
         <v>25637</v>
       </c>
-      <c r="L6" s="104">
+      <c r="L6" s="90">
         <f t="shared" si="0"/>
         <v>28772</v>
       </c>
-      <c r="M6" s="104">
+      <c r="M6" s="90">
         <f t="shared" si="0"/>
         <v>28452</v>
       </c>
-      <c r="N6" s="104">
+      <c r="N6" s="90">
         <f t="shared" si="0"/>
         <v>32794</v>
       </c>
-      <c r="O6" s="104">
+      <c r="O6" s="90">
         <f t="shared" si="0"/>
         <v>27213</v>
       </c>
-      <c r="P6" s="104">
+      <c r="P6" s="90">
         <f t="shared" si="0"/>
         <v>28370</v>
       </c>
-      <c r="Q6" s="104">
+      <c r="Q6" s="90">
         <f t="shared" si="0"/>
         <v>27429</v>
       </c>
-      <c r="R6" s="104">
+      <c r="R6" s="90">
         <f t="shared" si="0"/>
         <v>31438</v>
       </c>
-      <c r="S6" s="104">
+      <c r="S6" s="90">
         <f t="shared" si="0"/>
         <v>28306</v>
       </c>
-      <c r="T6" s="104">
+      <c r="T6" s="90">
         <f t="shared" si="0"/>
         <v>31723</v>
       </c>
-      <c r="U6" s="104">
+      <c r="U6" s="90">
         <f t="shared" si="0"/>
         <v>33936</v>
       </c>
-      <c r="V6" s="104">
+      <c r="V6" s="90">
         <f t="shared" si="0"/>
         <v>39041</v>
       </c>
-      <c r="W6" s="104">
+      <c r="W6" s="90">
         <f t="shared" si="0"/>
         <v>36015</v>
       </c>
-      <c r="X6" s="104">
+      <c r="X6" s="90">
         <f t="shared" si="0"/>
         <v>38718</v>
       </c>
-      <c r="Y6" s="104">
+      <c r="Y6" s="90">
         <f>Y4+Y5</f>
         <v>40319</v>
       </c>
-      <c r="Z6" s="105"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104">
+      <c r="Z6" s="91"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90">
         <f t="shared" ref="AD6:AF6" si="1">+AD4+AD5</f>
         <v>70196</v>
       </c>
-      <c r="AE6" s="104">
+      <c r="AE6" s="90">
         <f t="shared" si="1"/>
         <v>84826</v>
       </c>
-      <c r="AF6" s="104">
+      <c r="AF6" s="90">
         <f t="shared" si="1"/>
         <v>115655</v>
       </c>
-      <c r="AG6" s="104">
+      <c r="AG6" s="90">
         <f>+AG4+AG5</f>
         <v>114450</v>
       </c>
-      <c r="AH6" s="104">
+      <c r="AH6" s="90">
         <f>+AH4+AH5</f>
         <v>133006</v>
       </c>
-      <c r="AI6" s="105"/>
-      <c r="AJ6" s="104"/>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104"/>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
+      <c r="AI6" s="91"/>
+      <c r="AJ6" s="90"/>
+      <c r="AK6" s="90"/>
+      <c r="AL6" s="90"/>
+      <c r="AM6" s="90"/>
+      <c r="AN6" s="90"/>
+      <c r="AO6" s="90"/>
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="90"/>
     </row>
     <row r="7" spans="1:43" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="96"/>
-      <c r="B7" s="102" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="88" t="s">
         <v>2675</v>
       </c>
       <c r="C7" s="48"/>
@@ -10480,7 +10498,7 @@
       <c r="AQ7" s="48"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="96"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
@@ -10567,35 +10585,35 @@
         <v>160762.9</v>
       </c>
       <c r="AJ8" s="48">
-        <f>+AI8*(1+AJ27)</f>
+        <f t="shared" ref="AJ8:AQ8" si="2">+AI8*(1+AJ27)</f>
         <v>192915.47999999998</v>
       </c>
       <c r="AK8" s="48">
-        <f>+AJ8*(1+AK27)</f>
+        <f t="shared" si="2"/>
         <v>227640.26639999996</v>
       </c>
       <c r="AL8" s="48">
-        <f>+AK8*(1+AL27)</f>
+        <f t="shared" si="2"/>
         <v>261786.30635999993</v>
       </c>
       <c r="AM8" s="48">
-        <f>+AL8*(1+AM27)</f>
+        <f t="shared" si="2"/>
         <v>301054.25231399992</v>
       </c>
       <c r="AN8" s="48">
-        <f>+AM8*(1+AN27)</f>
+        <f t="shared" si="2"/>
         <v>346212.3901610999</v>
       </c>
       <c r="AO8" s="48">
-        <f>+AN8*(1+AO27)</f>
+        <f t="shared" si="2"/>
         <v>398144.24868526484</v>
       </c>
       <c r="AP8" s="48">
-        <f>+AO8*(1+AP27)</f>
+        <f t="shared" si="2"/>
         <v>457865.88598805451</v>
       </c>
       <c r="AQ8" s="48">
-        <f>+AP8*(1+AQ27)</f>
+        <f t="shared" si="2"/>
         <v>526545.76888626267</v>
       </c>
     </row>
@@ -10686,40 +10704,40 @@
         <v>29806.100999999995</v>
       </c>
       <c r="AJ9" s="48">
-        <f>+AJ8-AJ10</f>
+        <f t="shared" ref="AJ9:AQ9" si="3">+AJ8-AJ10</f>
         <v>38583.09599999999</v>
       </c>
       <c r="AK9" s="48">
-        <f>+AK8-AK10</f>
+        <f t="shared" si="3"/>
         <v>45528.053279999993</v>
       </c>
       <c r="AL9" s="48">
-        <f>+AL8-AL10</f>
+        <f t="shared" si="3"/>
         <v>52357.261271999974</v>
       </c>
       <c r="AM9" s="48">
-        <f>+AM8-AM10</f>
+        <f t="shared" si="3"/>
         <v>60210.850462799979</v>
       </c>
       <c r="AN9" s="48">
-        <f>+AN8-AN10</f>
+        <f t="shared" si="3"/>
         <v>69242.47803221998</v>
       </c>
       <c r="AO9" s="48">
-        <f>+AO8-AO10</f>
+        <f t="shared" si="3"/>
         <v>79628.849737052922</v>
       </c>
       <c r="AP9" s="48">
-        <f>+AP8-AP10</f>
+        <f t="shared" si="3"/>
         <v>91573.177197610901</v>
       </c>
       <c r="AQ9" s="48">
-        <f>+AQ8-AQ10</f>
+        <f t="shared" si="3"/>
         <v>105309.15377725253</v>
       </c>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="96"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
@@ -10732,63 +10750,63 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22">
-        <f>+K8-K9</f>
+        <f t="shared" ref="K10:Y10" si="4">+K8-K9</f>
         <v>21040</v>
       </c>
       <c r="L10" s="22">
-        <f>+L8-L9</f>
+        <f t="shared" si="4"/>
         <v>23678</v>
       </c>
       <c r="M10" s="22">
-        <f>+M8-M9</f>
+        <f t="shared" si="4"/>
         <v>23239</v>
       </c>
       <c r="N10" s="22">
-        <f>+N8-N9</f>
+        <f t="shared" si="4"/>
         <v>27323</v>
       </c>
       <c r="O10" s="22">
-        <f>+O8-O9</f>
+        <f t="shared" si="4"/>
         <v>21903</v>
       </c>
       <c r="P10" s="22">
-        <f>+P8-P9</f>
+        <f t="shared" si="4"/>
         <v>23630</v>
       </c>
       <c r="Q10" s="22">
-        <f>+Q8-Q9</f>
+        <f t="shared" si="4"/>
         <v>21998</v>
       </c>
       <c r="R10" s="22">
-        <f>+R8-R9</f>
+        <f t="shared" si="4"/>
         <v>23829</v>
       </c>
       <c r="S10" s="22">
-        <f>+S8-S9</f>
+        <f t="shared" si="4"/>
         <v>22537</v>
       </c>
       <c r="T10" s="22">
-        <f>+T8-T9</f>
+        <f t="shared" si="4"/>
         <v>26054</v>
       </c>
       <c r="U10" s="22">
-        <f>+U8-U9</f>
+        <f t="shared" si="4"/>
         <v>27936</v>
       </c>
       <c r="V10" s="22">
-        <f>+V8-V9</f>
+        <f t="shared" si="4"/>
         <v>32416</v>
       </c>
       <c r="W10" s="22">
-        <f>+W8-W9</f>
+        <f t="shared" si="4"/>
         <v>29815</v>
       </c>
       <c r="X10" s="22">
-        <f>+X8-X9</f>
+        <f t="shared" si="4"/>
         <v>31763</v>
       </c>
       <c r="Y10" s="22">
-        <f>+Y8-Y9</f>
+        <f t="shared" si="4"/>
         <v>33214</v>
       </c>
       <c r="Z10" s="60">
@@ -10796,27 +10814,27 @@
         <v>36164.799000000006</v>
       </c>
       <c r="AC10" s="22">
-        <f>+AC8-AC9</f>
+        <f t="shared" ref="AC10:AH10" si="5">+AC8-AC9</f>
         <v>46483</v>
       </c>
       <c r="AD10" s="22">
-        <f>+AD8-AD9</f>
+        <f t="shared" si="5"/>
         <v>57927</v>
       </c>
       <c r="AE10" s="22">
-        <f>+AE8-AE9</f>
+        <f t="shared" si="5"/>
         <v>69273</v>
       </c>
       <c r="AF10" s="22">
-        <f>+AF8-AF9</f>
+        <f t="shared" si="5"/>
         <v>95280</v>
       </c>
       <c r="AG10" s="22">
-        <f>+AG8-AG9</f>
+        <f t="shared" si="5"/>
         <v>91360</v>
       </c>
       <c r="AH10" s="22">
-        <f>+AH8-AH9</f>
+        <f t="shared" si="5"/>
         <v>108943</v>
       </c>
       <c r="AI10" s="60">
@@ -10824,35 +10842,35 @@
         <v>130956.799</v>
       </c>
       <c r="AJ10" s="55">
-        <f>+AJ8*AJ22</f>
+        <f t="shared" ref="AJ10:AQ10" si="6">+AJ8*AJ22</f>
         <v>154332.38399999999</v>
       </c>
       <c r="AK10" s="55">
-        <f>+AK8*AK22</f>
+        <f t="shared" si="6"/>
         <v>182112.21311999997</v>
       </c>
       <c r="AL10" s="55">
-        <f>+AL8*AL22</f>
+        <f t="shared" si="6"/>
         <v>209429.04508799996</v>
       </c>
       <c r="AM10" s="55">
-        <f>+AM8*AM22</f>
+        <f t="shared" si="6"/>
         <v>240843.40185119995</v>
       </c>
       <c r="AN10" s="55">
-        <f>+AN8*AN22</f>
+        <f t="shared" si="6"/>
         <v>276969.91212887992</v>
       </c>
       <c r="AO10" s="55">
-        <f>+AO8*AO22</f>
+        <f t="shared" si="6"/>
         <v>318515.39894821192</v>
       </c>
       <c r="AP10" s="55">
-        <f>+AP8*AP22</f>
+        <f t="shared" si="6"/>
         <v>366292.7087904436</v>
       </c>
       <c r="AQ10" s="55">
-        <f>+AQ8*AQ22</f>
+        <f t="shared" si="6"/>
         <v>421236.61510901013</v>
       </c>
     </row>
@@ -10878,7 +10896,7 @@
         <v>6316</v>
       </c>
       <c r="N11" s="20">
-        <f t="shared" ref="N11:N17" si="2">+AF11-SUM(K11:M11)</f>
+        <f t="shared" ref="N11:N17" si="7">+AF11-SUM(K11:M11)</f>
         <v>7046</v>
       </c>
       <c r="O11" s="20">
@@ -10891,7 +10909,7 @@
         <v>9170</v>
       </c>
       <c r="R11" s="20">
-        <f t="shared" ref="R11:R13" si="3">+AG11-SUM(O11:Q11)</f>
+        <f t="shared" ref="R11:R13" si="8">+AG11-SUM(O11:Q11)</f>
         <v>9771</v>
       </c>
       <c r="S11" s="20">
@@ -10941,35 +10959,35 @@
         <v>43405.983</v>
       </c>
       <c r="AJ11" s="48">
-        <f>+AJ8*AJ44</f>
+        <f t="shared" ref="AJ11:AQ11" si="9">+AJ8*AJ44</f>
         <v>52087.179599999996</v>
       </c>
       <c r="AK11" s="48">
-        <f>+AK8*AK44</f>
+        <f t="shared" si="9"/>
         <v>61462.871927999993</v>
       </c>
       <c r="AL11" s="48">
-        <f>+AL8*AL44</f>
+        <f t="shared" si="9"/>
         <v>65446.576589999982</v>
       </c>
       <c r="AM11" s="48">
-        <f>+AM8*AM44</f>
+        <f t="shared" si="9"/>
         <v>75263.563078499981</v>
       </c>
       <c r="AN11" s="48">
-        <f>+AN8*AN44</f>
+        <f t="shared" si="9"/>
         <v>86553.097540274975</v>
       </c>
       <c r="AO11" s="48">
-        <f>+AO8*AO44</f>
+        <f t="shared" si="9"/>
         <v>99536.062171316211</v>
       </c>
       <c r="AP11" s="48">
-        <f>+AP8*AP44</f>
+        <f t="shared" si="9"/>
         <v>114466.47149701363</v>
       </c>
       <c r="AQ11" s="48">
-        <f>+AQ8*AQ44</f>
+        <f t="shared" si="9"/>
         <v>131636.44222156567</v>
       </c>
     </row>
@@ -10995,7 +11013,7 @@
         <v>3554</v>
       </c>
       <c r="N12" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4387</v>
       </c>
       <c r="O12" s="20">
@@ -11008,7 +11026,7 @@
         <v>3780</v>
       </c>
       <c r="R12" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4575</v>
       </c>
       <c r="S12" s="20">
@@ -11058,35 +11076,35 @@
         <v>11253.403</v>
       </c>
       <c r="AJ12" s="48">
-        <f>+AJ8*0.12</f>
+        <f t="shared" ref="AJ12:AQ12" si="10">+AJ8*0.12</f>
         <v>23149.857599999996</v>
       </c>
       <c r="AK12" s="48">
-        <f>+AK8*0.12</f>
+        <f t="shared" si="10"/>
         <v>27316.831967999995</v>
       </c>
       <c r="AL12" s="48">
-        <f>+AL8*0.12</f>
+        <f t="shared" si="10"/>
         <v>31414.35676319999</v>
       </c>
       <c r="AM12" s="48">
-        <f>+AM8*0.12</f>
+        <f t="shared" si="10"/>
         <v>36126.51027767999</v>
       </c>
       <c r="AN12" s="48">
-        <f>+AN8*0.12</f>
+        <f t="shared" si="10"/>
         <v>41545.486819331985</v>
       </c>
       <c r="AO12" s="48">
-        <f>+AO8*0.12</f>
+        <f t="shared" si="10"/>
         <v>47777.309842231778</v>
       </c>
       <c r="AP12" s="48">
-        <f>+AP8*0.12</f>
+        <f t="shared" si="10"/>
         <v>54943.906318566536</v>
       </c>
       <c r="AQ12" s="48">
-        <f>+AQ8*0.12</f>
+        <f t="shared" si="10"/>
         <v>63185.492266351517</v>
       </c>
     </row>
@@ -11112,7 +11130,7 @@
         <v>2946</v>
       </c>
       <c r="N13" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3305</v>
       </c>
       <c r="O13" s="20">
@@ -11125,7 +11143,7 @@
         <v>3384</v>
       </c>
       <c r="R13" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3085</v>
       </c>
       <c r="S13" s="20">
@@ -11175,40 +11193,40 @@
         <v>14468.660999999998</v>
       </c>
       <c r="AJ13" s="48">
-        <f t="shared" ref="AJ13:AQ13" si="4">+AI13*1.05</f>
+        <f t="shared" ref="AJ13:AQ13" si="11">+AI13*1.05</f>
         <v>15192.09405</v>
       </c>
       <c r="AK13" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>15951.6987525</v>
       </c>
       <c r="AL13" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>16749.283690125001</v>
       </c>
       <c r="AM13" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>17586.747874631252</v>
       </c>
       <c r="AN13" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>18466.085268362815</v>
       </c>
       <c r="AO13" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>19389.389531780955</v>
       </c>
       <c r="AP13" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>20358.859008370004</v>
       </c>
       <c r="AQ13" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>21376.801958788506</v>
       </c>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="96"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="2" t="s">
         <v>51</v>
       </c>
@@ -11221,124 +11239,124 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22">
-        <f t="shared" ref="K14:Y14" si="5">+K10-K11-K12-K13</f>
+        <f t="shared" ref="K14:Y14" si="12">+K10-K11-K12-K13</f>
         <v>11378</v>
       </c>
       <c r="L14" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>12367</v>
       </c>
       <c r="M14" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>10423</v>
       </c>
       <c r="N14" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>12585</v>
       </c>
       <c r="O14" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>8524</v>
       </c>
       <c r="P14" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>8358</v>
       </c>
       <c r="Q14" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>5664</v>
       </c>
       <c r="R14" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>6398</v>
       </c>
       <c r="S14" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>7227</v>
       </c>
       <c r="T14" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>9392</v>
       </c>
       <c r="U14" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>13748</v>
       </c>
       <c r="V14" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>16384</v>
       </c>
       <c r="W14" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>13818</v>
       </c>
       <c r="X14" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>14847</v>
       </c>
       <c r="Y14" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>17350</v>
       </c>
       <c r="Z14" s="68"/>
       <c r="AC14" s="22">
-        <f t="shared" ref="AC14:AI14" si="6">+AC10-AC11-AC12-AC13</f>
+        <f t="shared" ref="AC14:AI14" si="13">+AC10-AC11-AC12-AC13</f>
         <v>24913</v>
       </c>
       <c r="AD14" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>23986</v>
       </c>
       <c r="AE14" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>32671</v>
       </c>
       <c r="AF14" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>46753</v>
       </c>
       <c r="AG14" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>28944</v>
       </c>
       <c r="AH14" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>46751</v>
       </c>
       <c r="AI14" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>61828.751999999986</v>
       </c>
       <c r="AJ14" s="22">
-        <f t="shared" ref="AJ14:AQ14" si="7">+AJ10-AJ11-AJ12-AJ13</f>
+        <f t="shared" ref="AJ14:AQ14" si="14">+AJ10-AJ11-AJ12-AJ13</f>
         <v>63903.25275</v>
       </c>
       <c r="AK14" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>77380.810471499979</v>
       </c>
       <c r="AL14" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>95818.828044674985</v>
       </c>
       <c r="AM14" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>111866.58062038872</v>
       </c>
       <c r="AN14" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>130405.24250091014</v>
       </c>
       <c r="AO14" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>151812.63740288297</v>
       </c>
       <c r="AP14" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>176523.47196649344</v>
       </c>
       <c r="AQ14" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>205037.87866230446</v>
       </c>
     </row>
@@ -11364,7 +11382,7 @@
         <v>142</v>
       </c>
       <c r="N15" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>118</v>
       </c>
       <c r="O15" s="20">
@@ -11425,35 +11443,35 @@
         <v>1320</v>
       </c>
       <c r="AJ15" s="48">
-        <f t="shared" ref="AJ15:AQ15" si="8">AVERAGE(AC15:AI15)</f>
+        <f t="shared" ref="AJ15:AQ15" si="15">AVERAGE(AC15:AI15)</f>
         <v>598</v>
       </c>
       <c r="AK15" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>619.42857142857144</v>
       </c>
       <c r="AL15" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>589.91836734693879</v>
       </c>
       <c r="AM15" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>601.47813411078721</v>
       </c>
       <c r="AN15" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>611.54643898375684</v>
       </c>
       <c r="AO15" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>716.7673588385793</v>
       </c>
       <c r="AP15" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>722.44841010123343</v>
       </c>
       <c r="AQ15" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>637.0838972585525</v>
       </c>
     </row>
@@ -11470,123 +11488,123 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20">
-        <f t="shared" ref="K16:Y16" si="9">+K14+K15</f>
+        <f t="shared" ref="K16:Y16" si="16">+K14+K15</f>
         <v>11503</v>
       </c>
       <c r="L16" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>12513</v>
       </c>
       <c r="M16" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>10565</v>
       </c>
       <c r="N16" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>12703</v>
       </c>
       <c r="O16" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>8908</v>
       </c>
       <c r="P16" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>8186</v>
       </c>
       <c r="Q16" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>5576</v>
       </c>
       <c r="R16" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6149</v>
       </c>
       <c r="S16" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7307</v>
       </c>
       <c r="T16" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>9293</v>
       </c>
       <c r="U16" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>14020</v>
       </c>
       <c r="V16" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>16808</v>
       </c>
       <c r="W16" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>14183</v>
       </c>
       <c r="X16" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>15106</v>
       </c>
       <c r="Y16" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>17822</v>
       </c>
       <c r="AC16" s="20">
-        <f t="shared" ref="AC16:AQ16" si="10">+AC14+AC15</f>
+        <f t="shared" ref="AC16:AQ16" si="17">+AC14+AC15</f>
         <v>25361</v>
       </c>
       <c r="AD16" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>24812</v>
       </c>
       <c r="AE16" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>33180</v>
       </c>
       <c r="AF16" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>47284</v>
       </c>
       <c r="AG16" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>28819</v>
       </c>
       <c r="AH16" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>47428</v>
       </c>
       <c r="AI16" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>63148.751999999986</v>
       </c>
       <c r="AJ16" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>64501.25275</v>
       </c>
       <c r="AK16" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>78000.239042928544</v>
       </c>
       <c r="AL16" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>96408.746412021923</v>
       </c>
       <c r="AM16" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>112468.05875449951</v>
       </c>
       <c r="AN16" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>131016.7889398939</v>
       </c>
       <c r="AO16" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>152529.40476172155</v>
       </c>
       <c r="AP16" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>177245.92037659467</v>
       </c>
       <c r="AQ16" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>205674.96255956302</v>
       </c>
     </row>
@@ -11612,7 +11630,7 @@
         <v>1371</v>
       </c>
       <c r="N17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2418</v>
       </c>
       <c r="O17" s="20">
@@ -11677,36 +11695,36 @@
         <v>12900.250550000001</v>
       </c>
       <c r="AK17" s="48">
-        <f t="shared" ref="AK17:AQ17" si="11">AK16*AK27</f>
+        <f t="shared" ref="AK17:AQ17" si="18">AK16*AK27</f>
         <v>14040.043027727137</v>
       </c>
       <c r="AL17" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>14461.311961803289</v>
       </c>
       <c r="AM17" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>16870.208813174926</v>
       </c>
       <c r="AN17" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>19652.518340984083</v>
       </c>
       <c r="AO17" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>22879.410714258232</v>
       </c>
       <c r="AP17" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26586.888056489199</v>
       </c>
       <c r="AQ17" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>30851.244383934452</v>
       </c>
     </row>
     <row r="18" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="96"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
@@ -11719,124 +11737,124 @@
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22">
-        <f t="shared" ref="K18:Y18" si="12">+K16-K17</f>
+        <f t="shared" ref="K18:Y18" si="19">+K16-K17</f>
         <v>9497</v>
       </c>
       <c r="L18" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>10394</v>
       </c>
       <c r="M18" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>9194</v>
       </c>
       <c r="N18" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>10285</v>
       </c>
       <c r="O18" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>7465</v>
       </c>
       <c r="P18" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6687</v>
       </c>
       <c r="Q18" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4395</v>
       </c>
       <c r="R18" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4653</v>
       </c>
       <c r="S18" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5709</v>
       </c>
       <c r="T18" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>7788</v>
       </c>
       <c r="U18" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>11583</v>
       </c>
       <c r="V18" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>14018</v>
       </c>
       <c r="W18" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>12369</v>
       </c>
       <c r="X18" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>13465</v>
       </c>
       <c r="Y18" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>15688</v>
       </c>
       <c r="Z18" s="68"/>
       <c r="AC18" s="22">
-        <f t="shared" ref="AC18:AI18" si="13">+AC16-AC17</f>
+        <f t="shared" ref="AC18:AI18" si="20">+AC16-AC17</f>
         <v>22112</v>
       </c>
       <c r="AD18" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>18485</v>
       </c>
       <c r="AE18" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>29146</v>
       </c>
       <c r="AF18" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>39370</v>
       </c>
       <c r="AG18" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23200</v>
       </c>
       <c r="AH18" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>39098</v>
       </c>
       <c r="AI18" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>50519.001599999989</v>
       </c>
       <c r="AJ18" s="22">
-        <f t="shared" ref="AJ18:AQ18" si="14">+AJ16-AJ17</f>
+        <f t="shared" ref="AJ18:AQ18" si="21">+AJ16-AJ17</f>
         <v>51601.002200000003</v>
       </c>
       <c r="AK18" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>63960.196015201407</v>
       </c>
       <c r="AL18" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>81947.434450218629</v>
       </c>
       <c r="AM18" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>95597.849941324588</v>
       </c>
       <c r="AN18" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>111364.27059890982</v>
       </c>
       <c r="AO18" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>129649.99404746332</v>
       </c>
       <c r="AP18" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>150659.03232010547</v>
       </c>
       <c r="AQ18" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>174823.71817562857</v>
       </c>
       <c r="AR18" s="22">
@@ -11844,278 +11862,278 @@
         <v>171327.24381211601</v>
       </c>
       <c r="AS18" s="22">
-        <f t="shared" ref="AS18:CK18" si="15">+AR18*(1+$AU$23)</f>
+        <f t="shared" ref="AS18:CK18" si="22">+AR18*(1+$AU$23)</f>
         <v>167900.69893587369</v>
       </c>
       <c r="AT18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>164542.68495715622</v>
       </c>
       <c r="AU18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>161251.83125801309</v>
       </c>
       <c r="AV18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>158026.79463285283</v>
       </c>
       <c r="AW18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>154866.25874019577</v>
       </c>
       <c r="AX18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>151768.93356539187</v>
       </c>
       <c r="AY18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>148733.55489408402</v>
       </c>
       <c r="AZ18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>145758.88379620234</v>
       </c>
       <c r="BA18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>142843.70612027828</v>
       </c>
       <c r="BB18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>139986.83199787271</v>
       </c>
       <c r="BC18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>137187.09535791524</v>
       </c>
       <c r="BD18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>134443.35345075693</v>
       </c>
       <c r="BE18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>131754.48638174179</v>
       </c>
       <c r="BF18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>129119.39665410695</v>
       </c>
       <c r="BG18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>126537.00872102482</v>
       </c>
       <c r="BH18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>124006.26854660432</v>
       </c>
       <c r="BI18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>121526.14317567223</v>
       </c>
       <c r="BJ18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>119095.62031215879</v>
       </c>
       <c r="BK18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>116713.70790591561</v>
       </c>
       <c r="BL18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>114379.4337477973</v>
       </c>
       <c r="BM18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>112091.84507284136</v>
       </c>
       <c r="BN18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>109850.00817138453</v>
       </c>
       <c r="BO18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>107653.00800795683</v>
       </c>
       <c r="BP18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>105499.9478477977</v>
       </c>
       <c r="BQ18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>103389.94889084174</v>
       </c>
       <c r="BR18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>101322.1499130249</v>
       </c>
       <c r="BS18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>99295.706914764392</v>
       </c>
       <c r="BT18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>97309.792776469098</v>
       </c>
       <c r="BU18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>95363.596920939715</v>
       </c>
       <c r="BV18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>93456.32498252092</v>
       </c>
       <c r="BW18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>91587.198482870503</v>
       </c>
       <c r="BX18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>89755.454513213088</v>
       </c>
       <c r="BY18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>87960.345422948827</v>
       </c>
       <c r="BZ18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>86201.138514489852</v>
       </c>
       <c r="CA18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>84477.115744200055</v>
       </c>
       <c r="CB18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>82787.573429316049</v>
       </c>
       <c r="CC18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>81131.821960729721</v>
       </c>
       <c r="CD18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>79509.18552151513</v>
       </c>
       <c r="CE18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>77919.001811084832</v>
       </c>
       <c r="CF18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>76360.621774863132</v>
       </c>
       <c r="CG18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>74833.40933936587</v>
       </c>
       <c r="CH18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>73336.741152578557</v>
       </c>
       <c r="CI18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>71870.006329526979</v>
       </c>
       <c r="CJ18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>70432.60620293644</v>
       </c>
       <c r="CK18" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>69023.954078877709</v>
       </c>
     </row>
     <row r="19" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="97"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="21" t="s">
         <v>56</v>
       </c>
       <c r="K19" s="21">
-        <f t="shared" ref="K19:Y19" si="16">+K18/K20</f>
+        <f t="shared" ref="K19:Y19" si="23">+K18/K20</f>
         <v>3.335792061819459</v>
       </c>
       <c r="L19" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>3.667607621736062</v>
       </c>
       <c r="M19" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>3.2672352523098791</v>
       </c>
       <c r="N19" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>3.6536412078152751</v>
       </c>
       <c r="O19" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.7394495412844035</v>
       </c>
       <c r="P19" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.4730029585798818</v>
       </c>
       <c r="Q19" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.638702460850112</v>
       </c>
       <c r="R19" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.731671008559732</v>
       </c>
       <c r="S19" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.206803247004252</v>
       </c>
       <c r="T19" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>3.0327102803738319</v>
       </c>
       <c r="U19" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>4.4965062111801242</v>
       </c>
       <c r="V19" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>5.4459984459984456</v>
       </c>
       <c r="W19" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>4.8601178781925345</v>
       </c>
       <c r="X19" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>5.3137332280978686</v>
       </c>
       <c r="Y19" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>6.2032423882957692</v>
       </c>
       <c r="Z19" s="62"/>
       <c r="AC19" s="21">
-        <f t="shared" ref="AC19:AI19" si="17">+AC18/AC20</f>
+        <f t="shared" ref="AC19:AI19" si="24">+AC18/AC20</f>
         <v>7.6512110726643598</v>
       </c>
       <c r="AD19" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>6.47687456201822</v>
       </c>
       <c r="AE19" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>10.223079621185549</v>
       </c>
       <c r="AF19" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>13.985790408525755</v>
       </c>
       <c r="AG19" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>8.6341644957201336</v>
       </c>
       <c r="AH19" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>15.189588189588189</v>
       </c>
       <c r="AI19" s="62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>19.936464719810573</v>
       </c>
       <c r="AJ19" s="52">
@@ -12123,36 +12141,36 @@
         <v>20.363457853196529</v>
       </c>
       <c r="AK19" s="52">
-        <f t="shared" ref="AK19:AQ19" si="18">AK18/AK20</f>
+        <f t="shared" ref="AK19:AQ19" si="25">AK18/AK20</f>
         <v>25.240803478769301</v>
       </c>
       <c r="AL19" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>32.33916118793158</v>
       </c>
       <c r="AM19" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>37.726065485921303</v>
       </c>
       <c r="AN19" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>43.948015232403243</v>
       </c>
       <c r="AO19" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>51.164164975320965</v>
       </c>
       <c r="AP19" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>59.45502459356964</v>
       </c>
       <c r="AQ19" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>68.991206856996286</v>
       </c>
     </row>
     <row r="20" spans="1:89" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="98"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="20" t="s">
         <v>4</v>
       </c>
@@ -12228,132 +12246,132 @@
         <v>2534</v>
       </c>
       <c r="AJ20" s="48">
-        <f t="shared" ref="AJ20:AQ20" si="19">+AI20</f>
+        <f t="shared" ref="AJ20:AQ20" si="26">+AI20</f>
         <v>2534</v>
       </c>
       <c r="AK20" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>2534</v>
       </c>
       <c r="AL20" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>2534</v>
       </c>
       <c r="AM20" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>2534</v>
       </c>
       <c r="AN20" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>2534</v>
       </c>
       <c r="AO20" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>2534</v>
       </c>
       <c r="AP20" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>2534</v>
       </c>
       <c r="AQ20" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>2534</v>
       </c>
     </row>
     <row r="22" spans="1:89" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="99"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="23" t="s">
         <v>57</v>
       </c>
       <c r="K22" s="23">
-        <f>K10/K8</f>
+        <f t="shared" ref="K22:Y22" si="27">K10/K8</f>
         <v>0.80394329601467274</v>
       </c>
       <c r="L22" s="23">
-        <f>L10/L8</f>
+        <f t="shared" si="27"/>
         <v>0.81432059703545756</v>
       </c>
       <c r="M22" s="23">
-        <f>M10/M8</f>
+        <f t="shared" si="27"/>
         <v>0.80106859703550504</v>
       </c>
       <c r="N22" s="23">
-        <f>N10/N8</f>
+        <f t="shared" si="27"/>
         <v>0.81146981081642955</v>
       </c>
       <c r="O22" s="23">
-        <f>O10/O8</f>
+        <f t="shared" si="27"/>
         <v>0.78482872294682526</v>
       </c>
       <c r="P22" s="23">
-        <f>P10/P8</f>
+        <f t="shared" si="27"/>
         <v>0.81985982929706469</v>
       </c>
       <c r="Q22" s="23">
-        <f>Q10/Q8</f>
+        <f t="shared" si="27"/>
         <v>0.79375045103557773</v>
       </c>
       <c r="R22" s="23">
-        <f>R10/R8</f>
+        <f t="shared" si="27"/>
         <v>0.74083631276231932</v>
       </c>
       <c r="S22" s="23">
-        <f>S10/S8</f>
+        <f t="shared" si="27"/>
         <v>0.7867690696456624</v>
       </c>
       <c r="T22" s="23">
-        <f>T10/T8</f>
+        <f t="shared" si="27"/>
         <v>0.81421294415450485</v>
       </c>
       <c r="U22" s="23">
-        <f>U10/U8</f>
+        <f t="shared" si="27"/>
         <v>0.81813389562467054</v>
       </c>
       <c r="V22" s="23">
-        <f>V10/V8</f>
+        <f t="shared" si="27"/>
         <v>0.8081372157957718</v>
       </c>
       <c r="W22" s="23">
-        <f>W10/W8</f>
+        <f t="shared" si="27"/>
         <v>0.81785763269784661</v>
       </c>
       <c r="X22" s="23">
-        <f>X10/X8</f>
+        <f t="shared" si="27"/>
         <v>0.81295590079598679</v>
       </c>
       <c r="Y22" s="23">
-        <f>Y10/Y8</f>
+        <f t="shared" si="27"/>
         <v>0.81830052477272164</v>
       </c>
       <c r="Z22" s="63">
         <v>0.81</v>
       </c>
       <c r="AC22" s="23">
-        <f>AC10/AC8</f>
+        <f t="shared" ref="AC22:AI22" si="28">AC10/AC8</f>
         <v>0.8324617643898421</v>
       </c>
       <c r="AD22" s="23">
-        <f>AD10/AD8</f>
+        <f t="shared" si="28"/>
         <v>0.81936998741106415</v>
       </c>
       <c r="AE22" s="23">
-        <f>AE10/AE8</f>
+        <f t="shared" si="28"/>
         <v>0.80582795323678236</v>
       </c>
       <c r="AF22" s="23">
-        <f>AF10/AF8</f>
+        <f t="shared" si="28"/>
         <v>0.80794376277251567</v>
       </c>
       <c r="AG22" s="23">
-        <f>AG10/AG8</f>
+        <f t="shared" si="28"/>
         <v>0.78347297378418479</v>
       </c>
       <c r="AH22" s="23">
-        <f>AH10/AH8</f>
+        <f t="shared" si="28"/>
         <v>0.8075714222176098</v>
       </c>
       <c r="AI22" s="63">
-        <f>AI10/AI8</f>
+        <f t="shared" si="28"/>
         <v>0.81459589868060356</v>
       </c>
       <c r="AJ22" s="53">
@@ -12382,129 +12400,129 @@
       </c>
     </row>
     <row r="23" spans="1:89" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="99"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="23" t="s">
         <v>58</v>
       </c>
       <c r="K23" s="23">
-        <f>K14/K8</f>
+        <f t="shared" ref="K23:Y23" si="29">K14/K8</f>
         <v>0.43475602766420846</v>
       </c>
       <c r="L23" s="23">
-        <f>L14/L8</f>
+        <f t="shared" si="29"/>
         <v>0.42531898063761736</v>
       </c>
       <c r="M23" s="23">
-        <f>M14/M8</f>
+        <f t="shared" si="29"/>
         <v>0.35928990003447087</v>
       </c>
       <c r="N23" s="23">
-        <f>N14/N8</f>
+        <f t="shared" si="29"/>
         <v>0.37376377297971547</v>
       </c>
       <c r="O23" s="23">
-        <f>O14/O8</f>
+        <f t="shared" si="29"/>
         <v>0.30543213415508097</v>
       </c>
       <c r="P23" s="23">
-        <f>P14/P8</f>
+        <f t="shared" si="29"/>
         <v>0.28998681562695161</v>
       </c>
       <c r="Q23" s="23">
-        <f>Q14/Q8</f>
+        <f t="shared" si="29"/>
         <v>0.20437324096124701</v>
       </c>
       <c r="R23" s="23">
-        <f>R14/R8</f>
+        <f t="shared" si="29"/>
         <v>0.19891186071817193</v>
       </c>
       <c r="S23" s="23">
-        <f>S14/S8</f>
+        <f t="shared" si="29"/>
         <v>0.25229533950078548</v>
       </c>
       <c r="T23" s="23">
-        <f>T14/T8</f>
+        <f t="shared" si="29"/>
         <v>0.29350917216163003</v>
       </c>
       <c r="U23" s="23">
-        <f>U14/U8</f>
+        <f t="shared" si="29"/>
         <v>0.40262402624026239</v>
       </c>
       <c r="V23" s="23">
-        <f>V14/V8</f>
+        <f t="shared" si="29"/>
         <v>0.40845632229756679</v>
       </c>
       <c r="W23" s="23">
-        <f>W14/W8</f>
+        <f t="shared" si="29"/>
         <v>0.37904265532848719</v>
       </c>
       <c r="X23" s="23">
-        <f>X14/X8</f>
+        <f t="shared" si="29"/>
         <v>0.38000051188861306</v>
       </c>
       <c r="Y23" s="23">
-        <f>Y14/Y8</f>
+        <f t="shared" si="29"/>
         <v>0.4274557146024785</v>
       </c>
       <c r="Z23" s="63"/>
       <c r="AC23" s="23">
-        <f>AC14/AC8</f>
+        <f t="shared" ref="AC23:AQ23" si="30">AC14/AC8</f>
         <v>0.44616569361366809</v>
       </c>
       <c r="AD23" s="23">
-        <f>AD14/AD8</f>
+        <f t="shared" si="30"/>
         <v>0.33927889443682191</v>
       </c>
       <c r="AE23" s="23">
-        <f>AE14/AE8</f>
+        <f t="shared" si="30"/>
         <v>0.3800500203571221</v>
       </c>
       <c r="AF23" s="23">
-        <f>AF14/AF8</f>
+        <f t="shared" si="30"/>
         <v>0.39645040660058173</v>
       </c>
       <c r="AG23" s="23">
-        <f>AG14/AG8</f>
+        <f t="shared" si="30"/>
         <v>0.24821411726367604</v>
       </c>
       <c r="AH23" s="23">
-        <f>AH14/AH8</f>
+        <f t="shared" si="30"/>
         <v>0.34655527716416362</v>
       </c>
       <c r="AI23" s="63">
-        <f>AI14/AI8</f>
+        <f t="shared" si="30"/>
         <v>0.38459589868060345</v>
       </c>
       <c r="AJ23" s="53">
-        <f>AJ14/AJ8</f>
+        <f t="shared" si="30"/>
         <v>0.33125000000000004</v>
       </c>
       <c r="AK23" s="53">
-        <f>AK14/AK8</f>
+        <f t="shared" si="30"/>
         <v>0.33992584745762711</v>
       </c>
       <c r="AL23" s="53">
-        <f>AL14/AL8</f>
+        <f t="shared" si="30"/>
         <v>0.36601925202652913</v>
       </c>
       <c r="AM23" s="53">
-        <f>AM14/AM8</f>
+        <f t="shared" si="30"/>
         <v>0.37158279532857003</v>
       </c>
       <c r="AN23" s="53">
-        <f>AN14/AN8</f>
+        <f t="shared" si="30"/>
         <v>0.37666255225652046</v>
       </c>
       <c r="AO23" s="53">
-        <f>AO14/AO8</f>
+        <f t="shared" si="30"/>
         <v>0.38130059119073617</v>
       </c>
       <c r="AP23" s="53">
-        <f>AP14/AP8</f>
+        <f t="shared" si="30"/>
         <v>0.38553532239154165</v>
       </c>
       <c r="AQ23" s="53">
-        <f>AQ14/AQ8</f>
+        <f t="shared" si="30"/>
         <v>0.389401816096625</v>
       </c>
       <c r="AT23" s="76" t="s">
@@ -12515,129 +12533,129 @@
       </c>
     </row>
     <row r="24" spans="1:89" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="99"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="23" t="s">
         <v>59</v>
       </c>
       <c r="K24" s="23">
-        <f>K18/K8</f>
+        <f t="shared" ref="K24:Y24" si="31">K18/K8</f>
         <v>0.36288257995491191</v>
       </c>
       <c r="L24" s="23">
-        <f>L18/L8</f>
+        <f t="shared" si="31"/>
         <v>0.35746466279189737</v>
       </c>
       <c r="M24" s="23">
-        <f>M18/M8</f>
+        <f t="shared" si="31"/>
         <v>0.31692519820751464</v>
       </c>
       <c r="N24" s="23">
-        <f>N18/N8</f>
+        <f t="shared" si="31"/>
         <v>0.30545573342045085</v>
       </c>
       <c r="O24" s="23">
-        <f>O18/O8</f>
+        <f t="shared" si="31"/>
         <v>0.26748602551239786</v>
       </c>
       <c r="P24" s="23">
-        <f>P18/P8</f>
+        <f t="shared" si="31"/>
         <v>0.23201026993269031</v>
       </c>
       <c r="Q24" s="23">
-        <f>Q18/Q8</f>
+        <f t="shared" si="31"/>
         <v>0.15858410911452694</v>
       </c>
       <c r="R24" s="23">
-        <f>R18/R8</f>
+        <f t="shared" si="31"/>
         <v>0.1446603450956008</v>
       </c>
       <c r="S24" s="23">
-        <f>S18/S8</f>
+        <f t="shared" si="31"/>
         <v>0.19930179787048349</v>
       </c>
       <c r="T24" s="23">
-        <f>T18/T8</f>
+        <f t="shared" si="31"/>
         <v>0.24338260570642833</v>
       </c>
       <c r="U24" s="23">
-        <f>U18/U8</f>
+        <f t="shared" si="31"/>
         <v>0.33921982076963625</v>
       </c>
       <c r="V24" s="23">
-        <f>V18/V8</f>
+        <f t="shared" si="31"/>
         <v>0.34947147985640209</v>
       </c>
       <c r="W24" s="23">
-        <f>W18/W8</f>
+        <f t="shared" si="31"/>
         <v>0.33929502125908656</v>
       </c>
       <c r="X24" s="23">
-        <f>X18/X8</f>
+        <f t="shared" si="31"/>
         <v>0.34462900872770086</v>
       </c>
       <c r="Y24" s="23">
-        <f>Y18/Y8</f>
+        <f t="shared" si="31"/>
         <v>0.38650865998176848</v>
       </c>
       <c r="Z24" s="63"/>
       <c r="AC24" s="23">
-        <f>AC18/AC8</f>
+        <f t="shared" ref="AC24:AQ24" si="32">AC18/AC8</f>
         <v>0.39600272216053584</v>
       </c>
       <c r="AD24" s="23">
-        <f>AD18/AD8</f>
+        <f t="shared" si="32"/>
         <v>0.26146795479298979</v>
       </c>
       <c r="AE24" s="23">
-        <f>AE18/AE8</f>
+        <f t="shared" si="32"/>
         <v>0.3390449601582039</v>
       </c>
       <c r="AF24" s="23">
-        <f>AF18/AF8</f>
+        <f t="shared" si="32"/>
         <v>0.33384494059985248</v>
       </c>
       <c r="AG24" s="23">
-        <f>AG18/AG8</f>
+        <f t="shared" si="32"/>
         <v>0.19895548371051977</v>
       </c>
       <c r="AH24" s="23">
-        <f>AH18/AH8</f>
+        <f t="shared" si="32"/>
         <v>0.28982520644616094</v>
       </c>
       <c r="AI24" s="63">
-        <f>AI18/AI8</f>
+        <f t="shared" si="32"/>
         <v>0.3142453986585213</v>
       </c>
       <c r="AJ24" s="53">
-        <f>AJ18/AJ8</f>
+        <f t="shared" si="32"/>
         <v>0.26747984246779993</v>
       </c>
       <c r="AK24" s="53">
-        <f>AK18/AK8</f>
+        <f t="shared" si="32"/>
         <v>0.28097048482105191</v>
       </c>
       <c r="AL24" s="53">
-        <f>AL18/AL8</f>
+        <f t="shared" si="32"/>
         <v>0.31303178378447039</v>
       </c>
       <c r="AM24" s="53">
-        <f>AM18/AM8</f>
+        <f t="shared" si="32"/>
         <v>0.31754359623399681</v>
       </c>
       <c r="AN24" s="53">
-        <f>AN18/AN8</f>
+        <f t="shared" si="32"/>
         <v>0.32166460174082645</v>
       </c>
       <c r="AO24" s="53">
-        <f>AO18/AO8</f>
+        <f t="shared" si="32"/>
         <v>0.32563573246527627</v>
       </c>
       <c r="AP24" s="53">
-        <f>AP18/AP8</f>
+        <f t="shared" si="32"/>
         <v>0.32904620529871947</v>
       </c>
       <c r="AQ24" s="53">
-        <f>AQ18/AQ8</f>
+        <f t="shared" si="32"/>
         <v>0.33201998478766931</v>
       </c>
       <c r="AT24" s="77" t="s">
@@ -12648,97 +12666,97 @@
       </c>
     </row>
     <row r="25" spans="1:89" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="99"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="23" t="s">
         <v>60</v>
       </c>
       <c r="K25" s="23">
-        <f t="shared" ref="K25:X25" si="20">K17/K16</f>
+        <f t="shared" ref="K25:X25" si="33">K17/K16</f>
         <v>0.17438928975049986</v>
       </c>
       <c r="L25" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>0.16934388236234316</v>
       </c>
       <c r="M25" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>0.12976810222432561</v>
       </c>
       <c r="N25" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>0.19034873651893253</v>
       </c>
       <c r="O25" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>0.1619892231701841</v>
       </c>
       <c r="P25" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>0.18311751771316884</v>
       </c>
       <c r="Q25" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>0.21180057388809181</v>
       </c>
       <c r="R25" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>0.24329159212880144</v>
       </c>
       <c r="S25" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>0.21869440262761736</v>
       </c>
       <c r="T25" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>0.16194985472936618</v>
       </c>
       <c r="U25" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>0.1738231098430813</v>
       </c>
       <c r="V25" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>0.16599238457877202</v>
       </c>
       <c r="W25" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>0.12789959811041388</v>
       </c>
       <c r="X25" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>0.10863233152389778</v>
       </c>
       <c r="Y25" s="23">
-        <f t="shared" ref="Y25" si="21">Y17/Y16</f>
+        <f t="shared" ref="Y25" si="34">Y17/Y16</f>
         <v>0.11973964762652901</v>
       </c>
       <c r="Z25" s="63"/>
       <c r="AC25" s="23">
-        <f t="shared" ref="AC25:AI25" si="22">AC17/AC16</f>
+        <f t="shared" ref="AC25:AI25" si="35">AC17/AC16</f>
         <v>0.12811009029612397</v>
       </c>
       <c r="AD25" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0.25499758181525067</v>
       </c>
       <c r="AE25" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0.12157926461723931</v>
       </c>
       <c r="AF25" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0.16737162676592504</v>
       </c>
       <c r="AG25" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0.19497553697213643</v>
       </c>
       <c r="AH25" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0.17563464620055663</v>
       </c>
       <c r="AI25" s="63">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0.2</v>
       </c>
       <c r="AJ25" s="53">
@@ -12783,79 +12801,79 @@
       </c>
     </row>
     <row r="27" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="96"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
       <c r="O27" s="24">
-        <f>O8/K8-1</f>
+        <f t="shared" ref="O27:Y27" si="36">O8/K8-1</f>
         <v>6.6371174200450911E-2</v>
       </c>
       <c r="P27" s="24">
-        <f>P8/L8-1</f>
+        <f t="shared" si="36"/>
         <v>-8.7698180692643568E-3</v>
       </c>
       <c r="Q27" s="24">
-        <f>Q8/M8-1</f>
+        <f t="shared" si="36"/>
         <v>-4.4674250258531556E-2</v>
       </c>
       <c r="R27" s="24">
-        <f>R8/N8-1</f>
+        <f t="shared" si="36"/>
         <v>-4.4726916337501144E-2</v>
       </c>
       <c r="S27" s="24">
-        <f>S8/O8-1</f>
+        <f t="shared" si="36"/>
         <v>2.6408198366060009E-2</v>
       </c>
       <c r="T27" s="24">
-        <f>T8/P8-1</f>
+        <f t="shared" si="36"/>
         <v>0.11022829782804799</v>
       </c>
       <c r="U27" s="24">
-        <f>U8/Q8-1</f>
+        <f t="shared" si="36"/>
         <v>0.23208486685429741</v>
       </c>
       <c r="V27" s="24">
-        <f>V8/R8-1</f>
+        <f t="shared" si="36"/>
         <v>0.24706979636250592</v>
       </c>
       <c r="W27" s="24">
-        <f>W8/S8-1</f>
+        <f t="shared" si="36"/>
         <v>0.27264793157619138</v>
       </c>
       <c r="X27" s="24">
-        <f>X8/T8-1</f>
+        <f t="shared" si="36"/>
         <v>0.2210069064658271</v>
       </c>
       <c r="Y27" s="24">
-        <f>Y8/U8-1</f>
+        <f t="shared" si="36"/>
         <v>0.18868974404029748</v>
       </c>
       <c r="Z27" s="64">
         <v>0.1</v>
       </c>
       <c r="AD27" s="24">
-        <f>AD8/AC8-1</f>
+        <f t="shared" ref="AD27:AI27" si="37">AD8/AC8-1</f>
         <v>0.26610910132884413</v>
       </c>
       <c r="AE27" s="24">
-        <f>AE8/AD8-1</f>
+        <f t="shared" si="37"/>
         <v>0.21596390228722573</v>
       </c>
       <c r="AF27" s="24">
-        <f>AF8/AE8-1</f>
+        <f t="shared" si="37"/>
         <v>0.37182574303495608</v>
       </c>
       <c r="AG27" s="24">
-        <f>AG8/AF8-1</f>
+        <f t="shared" si="37"/>
         <v>-1.1193175554782941E-2</v>
       </c>
       <c r="AH27" s="24">
-        <f>AH8/AG8-1</f>
+        <f t="shared" si="37"/>
         <v>0.15687468377226454</v>
       </c>
       <c r="AI27" s="64">
-        <f>AI8/AH8-1</f>
+        <f t="shared" si="37"/>
         <v>0.19170138322634211</v>
       </c>
       <c r="AJ27" s="54">
@@ -12890,52 +12908,52 @@
         <v>1588078.9000944388</v>
       </c>
     </row>
-    <row r="28" spans="1:89" s="113" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="112" t="s">
+    <row r="28" spans="1:89" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="98" t="s">
         <v>2681</v>
       </c>
-      <c r="S28" s="113">
-        <f t="shared" ref="S28:V28" si="23">S4/O4-1</f>
+      <c r="S28" s="99">
+        <f t="shared" ref="S28:V28" si="38">S4/O4-1</f>
         <v>4.0854878139121364E-2</v>
       </c>
-      <c r="T28" s="113">
-        <f t="shared" si="23"/>
+      <c r="T28" s="99">
+        <f t="shared" si="38"/>
         <v>0.11885478829212848</v>
       </c>
-      <c r="U28" s="113">
-        <f t="shared" si="23"/>
+      <c r="U28" s="99">
+        <f t="shared" si="38"/>
         <v>0.23519477181774784</v>
       </c>
-      <c r="V28" s="113">
-        <f t="shared" si="23"/>
+      <c r="V28" s="99">
+        <f t="shared" si="38"/>
         <v>0.23839385698288273</v>
       </c>
-      <c r="W28" s="113">
+      <c r="W28" s="99">
         <f>W4/S4-1</f>
         <v>0.26810433792391719</v>
       </c>
-      <c r="X28" s="113">
+      <c r="X28" s="99">
         <f>X4/T4-1</f>
         <v>0.21687091243888501</v>
       </c>
-      <c r="Y28" s="113">
+      <c r="Y28" s="99">
         <f>Y4/U4-1</f>
         <v>0.18553636714918409</v>
       </c>
       <c r="Z28" s="66"/>
-      <c r="AE28" s="113">
+      <c r="AE28" s="99">
         <f>+AE4/AD4-1</f>
         <v>0.20836982269758098</v>
       </c>
-      <c r="AF28" s="113">
+      <c r="AF28" s="99">
         <f>+AF4/AE4-1</f>
         <v>0.36551461939669005</v>
       </c>
-      <c r="AG28" s="113">
+      <c r="AG28" s="99">
         <f>+AG4/AF4-1</f>
         <v>-1.124123409957023E-2</v>
       </c>
-      <c r="AH28" s="113">
+      <c r="AH28" s="99">
         <f>+AH4/AG4-1</f>
         <v>0.16108481019341436</v>
       </c>
@@ -12948,60 +12966,60 @@
         <v>627.94737053951712</v>
       </c>
     </row>
-    <row r="29" spans="1:89" s="113" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="112" t="s">
+    <row r="29" spans="1:89" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="98" t="s">
         <v>2682</v>
       </c>
-      <c r="S29" s="113">
-        <f t="shared" ref="S29:V29" si="24">S7/O7-1</f>
+      <c r="S29" s="99">
+        <f t="shared" ref="S29:V29" si="39">S7/O7-1</f>
         <v>-0.51223021582733819</v>
       </c>
-      <c r="T29" s="113">
-        <f t="shared" si="24"/>
+      <c r="T29" s="99">
+        <f t="shared" si="39"/>
         <v>-0.38938053097345138</v>
       </c>
-      <c r="U29" s="113">
-        <f t="shared" si="24"/>
+      <c r="U29" s="99">
+        <f t="shared" si="39"/>
         <v>-0.26315789473684215</v>
       </c>
-      <c r="V29" s="113">
-        <f t="shared" si="24"/>
+      <c r="V29" s="99">
+        <f t="shared" si="39"/>
         <v>0.47317744154057761</v>
       </c>
-      <c r="W29" s="113">
+      <c r="W29" s="99">
         <f>W7/S7-1</f>
         <v>0.29793510324483785</v>
       </c>
-      <c r="X29" s="113">
+      <c r="X29" s="99">
         <f>X7/T7-1</f>
         <v>0.27898550724637672</v>
       </c>
-      <c r="Y29" s="113">
+      <c r="Y29" s="99">
         <f>Y7/U7-1</f>
         <v>0.28571428571428581</v>
       </c>
       <c r="Z29" s="66"/>
-      <c r="AE29" s="113">
+      <c r="AE29" s="99">
         <f>+AE7/AD7-1</f>
         <v>1.2734530938123751</v>
       </c>
-      <c r="AF29" s="113">
+      <c r="AF29" s="99">
         <f>+AF7/AE7-1</f>
         <v>0.99648814749780512</v>
       </c>
-      <c r="AG29" s="113">
+      <c r="AG29" s="99">
         <f>+AG7/AF7-1</f>
         <v>-5.0571679859278795E-2</v>
       </c>
-      <c r="AH29" s="113">
+      <c r="AH29" s="99">
         <f>+AH7/AG7-1</f>
         <v>-0.12181565539601669</v>
       </c>
       <c r="AI29" s="66"/>
-      <c r="AT29" s="115" t="s">
+      <c r="AT29" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="AU29" s="116">
+      <c r="AU29" s="102">
         <f>Main!C6</f>
         <v>575.27</v>
       </c>
@@ -13011,59 +13029,59 @@
         <v>62</v>
       </c>
       <c r="L30" s="23">
-        <f>L8/K8-1</f>
+        <f t="shared" ref="L30:Y30" si="40">L8/K8-1</f>
         <v>0.11103893622712158</v>
       </c>
       <c r="M30" s="23">
-        <f>M8/L8-1</f>
+        <f t="shared" si="40"/>
         <v>-2.3042267083949186E-3</v>
       </c>
       <c r="N30" s="23">
-        <f>N8/M8-1</f>
+        <f t="shared" si="40"/>
         <v>0.16066873491899347</v>
       </c>
       <c r="O30" s="23">
-        <f>O8/N8-1</f>
+        <f t="shared" si="40"/>
         <v>-0.1711561878174096</v>
       </c>
       <c r="P30" s="23">
-        <f>P8/O8-1</f>
+        <f t="shared" si="40"/>
         <v>3.2750465816253405E-2</v>
       </c>
       <c r="Q30" s="23">
-        <f>Q8/P8-1</f>
+        <f t="shared" si="40"/>
         <v>-3.8442856151550853E-2</v>
       </c>
       <c r="R30" s="23">
-        <f>R8/Q8-1</f>
+        <f t="shared" si="40"/>
         <v>0.1606047485025619</v>
       </c>
       <c r="S30" s="23">
-        <f>S8/R8-1</f>
+        <f t="shared" si="40"/>
         <v>-0.10943572205813767</v>
       </c>
       <c r="T30" s="23">
-        <f>T8/S8-1</f>
+        <f t="shared" si="40"/>
         <v>0.1170884971199162</v>
       </c>
       <c r="U30" s="23">
-        <f>U8/T8-1</f>
+        <f t="shared" si="40"/>
         <v>6.7095846745210741E-2</v>
       </c>
       <c r="V30" s="23">
-        <f>V8/U8-1</f>
+        <f t="shared" si="40"/>
         <v>0.17472031863175785</v>
       </c>
       <c r="W30" s="23">
-        <f>W8/V8-1</f>
+        <f t="shared" si="40"/>
         <v>-9.1169724770642224E-2</v>
       </c>
       <c r="X30" s="23">
-        <f>X8/W8-1</f>
+        <f t="shared" si="40"/>
         <v>7.1759703744342263E-2</v>
       </c>
       <c r="Y30" s="23">
-        <f>Y8/X8-1</f>
+        <f t="shared" si="40"/>
         <v>3.8852345729569304E-2</v>
       </c>
       <c r="AC30" s="37" t="s">
@@ -13087,71 +13105,71 @@
       <c r="AI30" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="AT30" s="115"/>
-      <c r="AU30" s="116"/>
-    </row>
-    <row r="31" spans="1:89" s="113" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="99"/>
-      <c r="B31" s="112" t="s">
+      <c r="AT30" s="101"/>
+      <c r="AU30" s="102"/>
+    </row>
+    <row r="31" spans="1:89" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="85"/>
+      <c r="B31" s="98" t="s">
         <v>2679</v>
       </c>
-      <c r="L31" s="113">
-        <f t="shared" ref="L31:T31" si="25">+L4/K4-1</f>
+      <c r="L31" s="99">
+        <f t="shared" ref="L31:S31" si="41">+L4/K4-1</f>
         <v>0.1234718345846928</v>
       </c>
-      <c r="M31" s="113">
-        <f t="shared" si="25"/>
+      <c r="M31" s="99">
+        <f t="shared" si="41"/>
         <v>-1.0636808957312782E-2</v>
       </c>
-      <c r="N31" s="113">
-        <f t="shared" si="25"/>
+      <c r="N31" s="99">
+        <f t="shared" si="41"/>
         <v>0.15430046682699117</v>
       </c>
-      <c r="O31" s="113">
-        <f t="shared" si="25"/>
+      <c r="O31" s="99">
+        <f t="shared" si="41"/>
         <v>-0.17283004994025553</v>
       </c>
-      <c r="P31" s="113">
-        <f t="shared" si="25"/>
+      <c r="P31" s="99">
+        <f t="shared" si="41"/>
         <v>4.2743906956070887E-2</v>
       </c>
-      <c r="Q31" s="113">
-        <f t="shared" si="25"/>
+      <c r="Q31" s="99">
+        <f t="shared" si="41"/>
         <v>-3.2502131287297509E-2</v>
       </c>
-      <c r="R31" s="113">
-        <f t="shared" si="25"/>
+      <c r="R31" s="99">
+        <f t="shared" si="41"/>
         <v>0.14751991775893081</v>
       </c>
-      <c r="S31" s="113">
-        <f t="shared" si="25"/>
+      <c r="S31" s="99">
+        <f t="shared" si="41"/>
         <v>-0.10091185410334347</v>
       </c>
-      <c r="T31" s="113">
-        <f>+T4/S4-1</f>
+      <c r="T31" s="99">
+        <f t="shared" ref="T31:Y31" si="42">+T4/S4-1</f>
         <v>0.1208853777445642</v>
       </c>
-      <c r="U31" s="113">
-        <f>+U4/T4-1</f>
+      <c r="U31" s="99">
+        <f t="shared" si="42"/>
         <v>6.8099561876944659E-2</v>
       </c>
-      <c r="V31" s="113">
-        <f>+V4/U4-1</f>
+      <c r="V31" s="99">
+        <f t="shared" si="42"/>
         <v>0.15049192997057337</v>
       </c>
-      <c r="W31" s="113">
-        <f>+W4/V4-1</f>
+      <c r="W31" s="99">
+        <f t="shared" si="42"/>
         <v>-7.9341704128558899E-2</v>
       </c>
-      <c r="X31" s="113">
-        <f>+X4/W4-1</f>
+      <c r="X31" s="99">
+        <f t="shared" si="42"/>
         <v>7.559983162621009E-2</v>
       </c>
-      <c r="Y31" s="113">
-        <f>+Y4/X4-1</f>
+      <c r="Y31" s="99">
+        <f t="shared" si="42"/>
         <v>4.0595893448824638E-2</v>
       </c>
-      <c r="Z31" s="114"/>
+      <c r="Z31" s="100"/>
       <c r="AC31" s="37" t="s">
         <v>113</v>
       </c>
@@ -13170,7 +13188,7 @@
       <c r="AH31" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="AI31" s="114"/>
+      <c r="AI31" s="100"/>
       <c r="AT31" s="80" t="s">
         <v>2669</v>
       </c>
@@ -13179,68 +13197,68 @@
         <v>9.1569820327006779E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:89" s="113" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="99"/>
-      <c r="B32" s="112" t="s">
+    <row r="32" spans="1:89" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="85"/>
+      <c r="B32" s="98" t="s">
         <v>2680</v>
       </c>
-      <c r="L32" s="113">
-        <f t="shared" ref="L32:T32" si="26">L7/K7-1</f>
+      <c r="L32" s="99">
+        <f t="shared" ref="L32:S32" si="43">L7/K7-1</f>
         <v>-0.42883895131086147</v>
       </c>
-      <c r="M32" s="113">
-        <f t="shared" si="26"/>
+      <c r="M32" s="99">
+        <f t="shared" si="43"/>
         <v>0.82950819672131137</v>
       </c>
-      <c r="N32" s="113">
-        <f t="shared" si="26"/>
+      <c r="N32" s="99">
+        <f t="shared" si="43"/>
         <v>0.57168458781362008</v>
       </c>
-      <c r="O32" s="113">
-        <f t="shared" si="26"/>
+      <c r="O32" s="99">
+        <f t="shared" si="43"/>
         <v>-0.20752565564424175</v>
       </c>
-      <c r="P32" s="113">
-        <f t="shared" si="26"/>
+      <c r="P32" s="99">
+        <f t="shared" si="43"/>
         <v>-0.34964028776978417</v>
       </c>
-      <c r="Q32" s="113">
-        <f t="shared" si="26"/>
+      <c r="Q32" s="99">
+        <f t="shared" si="43"/>
         <v>-0.36946902654867253</v>
       </c>
-      <c r="R32" s="113">
-        <f t="shared" si="26"/>
+      <c r="R32" s="99">
+        <f t="shared" si="43"/>
         <v>1.5508771929824561</v>
       </c>
-      <c r="S32" s="113">
-        <f t="shared" si="26"/>
+      <c r="S32" s="99">
+        <f t="shared" si="43"/>
         <v>-0.53370013755158185</v>
       </c>
-      <c r="T32" s="113">
-        <f>T7/S7-1</f>
+      <c r="T32" s="99">
+        <f t="shared" ref="T32:Y32" si="44">T7/S7-1</f>
         <v>-0.18584070796460173</v>
       </c>
-      <c r="U32" s="113">
-        <f>U7/T7-1</f>
+      <c r="U32" s="99">
+        <f t="shared" si="44"/>
         <v>-0.23913043478260865</v>
       </c>
-      <c r="V32" s="113">
-        <f>V7/U7-1</f>
+      <c r="V32" s="99">
+        <f t="shared" si="44"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="W32" s="113">
-        <f>W7/V7-1</f>
+      <c r="W32" s="99">
+        <f t="shared" si="44"/>
         <v>-0.58916900093370683</v>
       </c>
-      <c r="X32" s="113">
-        <f>X7/W7-1</f>
+      <c r="X32" s="99">
+        <f t="shared" si="44"/>
         <v>-0.19772727272727275</v>
       </c>
-      <c r="Y32" s="113">
-        <f>Y7/X7-1</f>
+      <c r="Y32" s="99">
+        <f t="shared" si="44"/>
         <v>-0.23512747875354112</v>
       </c>
-      <c r="Z32" s="114"/>
+      <c r="Z32" s="100"/>
       <c r="AC32" s="37" t="s">
         <v>113</v>
       </c>
@@ -13259,7 +13277,7 @@
       <c r="AH32" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="AI32" s="114"/>
+      <c r="AI32" s="100"/>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B34" s="26" t="s">
@@ -13267,7 +13285,7 @@
       </c>
     </row>
     <row r="35" spans="1:43" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="97" t="s">
+      <c r="A35" s="83" t="s">
         <v>2671</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -13359,195 +13377,195 @@
       <c r="AP35" s="52"/>
       <c r="AQ35" s="52"/>
     </row>
-    <row r="36" spans="1:43" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="117"/>
-      <c r="B36" s="118" t="s">
+    <row r="36" spans="1:43" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="103"/>
+      <c r="B36" s="104" t="s">
         <v>2676</v>
       </c>
-      <c r="J36" s="111">
-        <f t="shared" ref="J36:K36" si="27">J35/F35-1</f>
+      <c r="J36" s="97">
+        <f t="shared" ref="J36:K36" si="45">J35/F35-1</f>
         <v>0.15044247787610643</v>
       </c>
-      <c r="K36" s="111">
-        <f t="shared" si="27"/>
+      <c r="K36" s="97">
+        <f t="shared" si="45"/>
         <v>0.15254237288135597</v>
       </c>
-      <c r="L36" s="111">
-        <f t="shared" ref="L36" si="28">L35/H35-1</f>
+      <c r="L36" s="97">
+        <f t="shared" ref="L36" si="46">L35/H35-1</f>
         <v>0.11740890688259098</v>
       </c>
-      <c r="M36" s="111">
-        <f t="shared" ref="M36" si="29">M35/I35-1</f>
+      <c r="M36" s="97">
+        <f t="shared" ref="M36" si="47">M35/I35-1</f>
         <v>0.10629921259842523</v>
       </c>
-      <c r="N36" s="111">
-        <f t="shared" ref="N36" si="30">N35/J35-1</f>
+      <c r="N36" s="97">
+        <f t="shared" ref="N36" si="48">N35/J35-1</f>
         <v>8.4615384615384537E-2</v>
       </c>
-      <c r="O36" s="111">
-        <f t="shared" ref="O36" si="31">O35/K35-1</f>
+      <c r="O36" s="97">
+        <f t="shared" ref="O36" si="49">O35/K35-1</f>
         <v>5.5147058823529438E-2</v>
       </c>
-      <c r="P36" s="111">
-        <f t="shared" ref="P36" si="32">P35/L35-1</f>
+      <c r="P36" s="97">
+        <f t="shared" ref="P36" si="50">P35/L35-1</f>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="Q36" s="111">
-        <f t="shared" ref="Q36" si="33">Q35/M35-1</f>
+      <c r="Q36" s="97">
+        <f t="shared" ref="Q36" si="51">Q35/M35-1</f>
         <v>4.2704626334519658E-2</v>
       </c>
-      <c r="R36" s="111">
-        <f t="shared" ref="R36:X36" si="34">R35/N35-1</f>
+      <c r="R36" s="97">
+        <f t="shared" ref="R36:X36" si="52">R35/N35-1</f>
         <v>4.9645390070921946E-2</v>
       </c>
-      <c r="S36" s="111">
-        <f t="shared" si="34"/>
+      <c r="S36" s="97">
+        <f t="shared" si="52"/>
         <v>5.2264808362369353E-2</v>
       </c>
-      <c r="T36" s="111">
-        <f t="shared" si="34"/>
+      <c r="T36" s="97">
+        <f t="shared" si="52"/>
         <v>6.5972222222222099E-2</v>
       </c>
-      <c r="U36" s="111">
-        <f t="shared" si="34"/>
+      <c r="U36" s="97">
+        <f t="shared" si="52"/>
         <v>7.1672354948805417E-2</v>
       </c>
-      <c r="V36" s="111">
-        <f t="shared" si="34"/>
+      <c r="V36" s="97">
+        <f t="shared" si="52"/>
         <v>7.7702702702702631E-2</v>
       </c>
-      <c r="W36" s="111">
-        <f t="shared" si="34"/>
+      <c r="W36" s="97">
+        <f t="shared" si="52"/>
         <v>7.2847682119205448E-2</v>
       </c>
-      <c r="X36" s="111">
-        <f t="shared" si="34"/>
+      <c r="X36" s="97">
+        <f t="shared" si="52"/>
         <v>6.514657980456029E-2</v>
       </c>
-      <c r="Y36" s="111">
+      <c r="Y36" s="97">
         <f>Y35/U35-1</f>
         <v>0.2420382165605095</v>
       </c>
-      <c r="Z36" s="119"/>
-      <c r="AE36" s="111">
+      <c r="Z36" s="105"/>
+      <c r="AE36" s="97">
         <f>AE35/AD35-1</f>
         <v>0.15044247787610643</v>
       </c>
-      <c r="AF36" s="111">
+      <c r="AF36" s="97">
         <f>AF35/AE35-1</f>
         <v>8.4615384615384537E-2</v>
       </c>
-      <c r="AG36" s="111">
+      <c r="AG36" s="97">
         <f>AG35/AF35-1</f>
         <v>7.0921985815602939E-2</v>
       </c>
-      <c r="AH36" s="111">
+      <c r="AH36" s="97">
         <f>AH35/AG35-1</f>
         <v>5.6291390728476776E-2</v>
       </c>
-      <c r="AI36" s="119"/>
-    </row>
-    <row r="37" spans="1:43" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="107"/>
-      <c r="B37" s="108" t="s">
+      <c r="AI36" s="105"/>
+    </row>
+    <row r="37" spans="1:43" s="95" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="93"/>
+      <c r="B37" s="94" t="s">
         <v>2677</v>
       </c>
-      <c r="G37" s="111">
-        <f t="shared" ref="G37:O37" si="35">G35/F35-1</f>
+      <c r="G37" s="97">
+        <f t="shared" ref="G37:N37" si="53">G35/F35-1</f>
         <v>4.4247787610619538E-2</v>
       </c>
-      <c r="H37" s="111">
-        <f t="shared" si="35"/>
+      <c r="H37" s="97">
+        <f t="shared" si="53"/>
         <v>4.6610169491525522E-2</v>
       </c>
-      <c r="I37" s="111">
-        <f t="shared" si="35"/>
+      <c r="I37" s="97">
+        <f t="shared" si="53"/>
         <v>2.8340080971659853E-2</v>
       </c>
-      <c r="J37" s="111">
-        <f t="shared" si="35"/>
+      <c r="J37" s="97">
+        <f t="shared" si="53"/>
         <v>2.3622047244094446E-2</v>
       </c>
-      <c r="K37" s="111">
-        <f t="shared" si="35"/>
+      <c r="K37" s="97">
+        <f t="shared" si="53"/>
         <v>4.6153846153846212E-2</v>
       </c>
-      <c r="L37" s="111">
-        <f t="shared" si="35"/>
+      <c r="L37" s="97">
+        <f t="shared" si="53"/>
         <v>1.4705882352941124E-2</v>
       </c>
-      <c r="M37" s="111">
-        <f t="shared" si="35"/>
+      <c r="M37" s="97">
+        <f t="shared" si="53"/>
         <v>1.8115942028985588E-2</v>
       </c>
-      <c r="N37" s="111">
-        <f t="shared" si="35"/>
+      <c r="N37" s="97">
+        <f t="shared" si="53"/>
         <v>3.5587188612098419E-3</v>
       </c>
-      <c r="O37" s="111">
-        <f t="shared" ref="O37:X37" si="36">O35/N35-1</f>
+      <c r="O37" s="97">
+        <f t="shared" ref="O37:W37" si="54">O35/N35-1</f>
         <v>1.7730496453900901E-2</v>
       </c>
-      <c r="P37" s="111">
-        <f t="shared" si="36"/>
+      <c r="P37" s="97">
+        <f t="shared" si="54"/>
         <v>3.4843205574912606E-3</v>
       </c>
-      <c r="Q37" s="111">
-        <f t="shared" si="36"/>
+      <c r="Q37" s="97">
+        <f t="shared" si="54"/>
         <v>1.736111111111116E-2</v>
       </c>
-      <c r="R37" s="111">
-        <f t="shared" si="36"/>
+      <c r="R37" s="97">
+        <f t="shared" si="54"/>
         <v>1.0238907849829282E-2</v>
       </c>
-      <c r="S37" s="111">
-        <f t="shared" si="36"/>
+      <c r="S37" s="97">
+        <f t="shared" si="54"/>
         <v>2.0270270270270396E-2</v>
       </c>
-      <c r="T37" s="111">
-        <f t="shared" si="36"/>
+      <c r="T37" s="97">
+        <f t="shared" si="54"/>
         <v>1.655629139072845E-2</v>
       </c>
-      <c r="U37" s="111">
-        <f t="shared" si="36"/>
+      <c r="U37" s="97">
+        <f t="shared" si="54"/>
         <v>2.2801302931596101E-2</v>
       </c>
-      <c r="V37" s="111">
-        <f t="shared" si="36"/>
+      <c r="V37" s="97">
+        <f t="shared" si="54"/>
         <v>1.5923566878980777E-2</v>
       </c>
-      <c r="W37" s="111">
-        <f t="shared" si="36"/>
+      <c r="W37" s="97">
+        <f t="shared" si="54"/>
         <v>1.5673981191222763E-2</v>
       </c>
-      <c r="X37" s="111">
+      <c r="X37" s="97">
         <f>X35/W35-1</f>
         <v>9.2592592592593004E-3</v>
       </c>
-      <c r="Y37" s="111">
+      <c r="Y37" s="97">
         <f>Y35/X35-1</f>
         <v>0.19266055045871555</v>
       </c>
-      <c r="Z37" s="110"/>
-      <c r="AC37" s="120" t="s">
+      <c r="Z37" s="96"/>
+      <c r="AC37" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="AD37" s="120" t="s">
+      <c r="AD37" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="AE37" s="120" t="s">
+      <c r="AE37" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="AF37" s="120" t="s">
+      <c r="AF37" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="AG37" s="120" t="s">
+      <c r="AG37" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="AH37" s="120" t="s">
+      <c r="AH37" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="AI37" s="110"/>
+      <c r="AI37" s="96"/>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
@@ -13555,7 +13573,7 @@
       </c>
     </row>
     <row r="41" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="98"/>
+      <c r="A41" s="84"/>
       <c r="B41" s="20" t="s">
         <v>128</v>
       </c>
@@ -13624,161 +13642,161 @@
       <c r="AP41" s="48"/>
       <c r="AQ41" s="48"/>
     </row>
-    <row r="42" spans="1:43" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="117"/>
-      <c r="B42" s="118" t="s">
+    <row r="42" spans="1:43" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="103"/>
+      <c r="B42" s="104" t="s">
         <v>2683</v>
       </c>
-      <c r="R42" s="111">
-        <f>R41/N41-1</f>
+      <c r="R42" s="97">
+        <f t="shared" ref="R42:Y42" si="55">R41/N41-1</f>
         <v>0.20163957204390726</v>
       </c>
-      <c r="S42" s="111">
-        <f>S41/O41-1</f>
+      <c r="S42" s="97">
+        <f t="shared" si="55"/>
         <v>-8.8811773022299256E-3</v>
       </c>
-      <c r="T42" s="111">
-        <f>T41/P41-1</f>
+      <c r="T42" s="97">
+        <f t="shared" si="55"/>
         <v>-0.14462676385049011</v>
       </c>
-      <c r="U42" s="111">
-        <f>U41/Q41-1</f>
+      <c r="U42" s="97">
+        <f t="shared" si="55"/>
         <v>-0.24198868451794675</v>
       </c>
-      <c r="V42" s="111">
-        <f>V41/R41-1</f>
+      <c r="V42" s="97">
+        <f t="shared" si="55"/>
         <v>-0.22160680835318336</v>
       </c>
-      <c r="W42" s="111">
-        <f>W41/S41-1</f>
+      <c r="W42" s="97">
+        <f t="shared" si="55"/>
         <v>-0.10095443110200486</v>
       </c>
-      <c r="X42" s="111">
-        <f>X41/T41-1</f>
+      <c r="X42" s="97">
+        <f t="shared" si="55"/>
         <v>-9.3746939232394189E-3</v>
       </c>
-      <c r="Y42" s="111">
-        <f>Y41/U41-1</f>
+      <c r="Y42" s="97">
+        <f t="shared" si="55"/>
         <v>9.3963889098738429E-2</v>
       </c>
-      <c r="Z42" s="119"/>
-      <c r="AC42" s="120" t="s">
+      <c r="Z42" s="105"/>
+      <c r="AC42" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="AD42" s="111">
+      <c r="AD42" s="97">
         <f>AD41/AC41-1</f>
         <v>0.26287689324753427</v>
       </c>
-      <c r="AE42" s="111">
+      <c r="AE42" s="97">
         <f>AE41/AD41-1</f>
         <v>0.30399181166837264</v>
       </c>
-      <c r="AF42" s="111">
+      <c r="AF42" s="97">
         <f>AF41/AE41-1</f>
         <v>0.22807316906695796</v>
       </c>
-      <c r="AG42" s="111">
+      <c r="AG42" s="97">
         <f>AG41/AF41-1</f>
         <v>0.20163957204390726</v>
       </c>
-      <c r="AH42" s="111">
+      <c r="AH42" s="97">
         <f>AH41/AG41-1</f>
         <v>-0.22160680835318336</v>
       </c>
-      <c r="AI42" s="119"/>
+      <c r="AI42" s="105"/>
     </row>
     <row r="44" spans="1:43" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="99"/>
+      <c r="A44" s="85"/>
       <c r="B44" s="23" t="s">
         <v>2663</v>
       </c>
       <c r="K44" s="23">
-        <f>+K11/K8</f>
+        <f t="shared" ref="K44:Y44" si="56">+K11/K8</f>
         <v>0.19857857934354819</v>
       </c>
       <c r="L44" s="23">
-        <f>+L11/L8</f>
+        <f t="shared" si="56"/>
         <v>0.2096502390205317</v>
       </c>
       <c r="M44" s="23">
-        <f>+M11/M8</f>
+        <f t="shared" si="56"/>
         <v>0.21771802826611514</v>
       </c>
       <c r="N44" s="23">
-        <f>+N11/N8</f>
+        <f t="shared" si="56"/>
         <v>0.20926019423242553</v>
       </c>
       <c r="O44" s="23">
-        <f>+O11/O8</f>
+        <f t="shared" si="56"/>
         <v>0.27615737422961156</v>
       </c>
       <c r="P44" s="23">
-        <f>+P11/P8</f>
+        <f t="shared" si="56"/>
         <v>0.30150579418499757</v>
       </c>
       <c r="Q44" s="23">
-        <f>+Q11/Q8</f>
+        <f t="shared" si="56"/>
         <v>0.33087969979071952</v>
       </c>
       <c r="R44" s="23">
-        <f>+R11/R8</f>
+        <f t="shared" si="56"/>
         <v>0.30377739779263174</v>
       </c>
       <c r="S44" s="23">
-        <f>+S11/S8</f>
+        <f t="shared" si="56"/>
         <v>0.32749170884971202</v>
       </c>
       <c r="T44" s="23">
-        <f>+T11/T8</f>
+        <f t="shared" si="56"/>
         <v>0.29200912528516515</v>
       </c>
       <c r="U44" s="23">
-        <f>+U11/U8</f>
+        <f t="shared" si="56"/>
         <v>0.27063199203420607</v>
       </c>
       <c r="V44" s="23">
-        <f>+V11/V8</f>
+        <f t="shared" si="56"/>
         <v>0.2621908655763861</v>
       </c>
       <c r="W44" s="23">
-        <f>+W11/W8</f>
+        <f t="shared" si="56"/>
         <v>0.27370731038266355</v>
       </c>
       <c r="X44" s="23">
-        <f>+X11/X8</f>
+        <f t="shared" si="56"/>
         <v>0.26968851577896652</v>
       </c>
       <c r="Y44" s="23">
-        <f>+Y11/Y8</f>
+        <f t="shared" si="56"/>
         <v>0.27537017418512405</v>
       </c>
       <c r="Z44" s="63"/>
       <c r="AC44" s="23">
-        <f>AC11/AC8</f>
+        <f t="shared" ref="AC44:AI44" si="57">AC11/AC8</f>
         <v>0.18397865253053475</v>
       </c>
       <c r="AD44" s="23">
-        <f>AD11/AD8</f>
+        <f t="shared" si="57"/>
         <v>0.19237025616362788</v>
       </c>
       <c r="AE44" s="23">
-        <f>AE11/AE8</f>
+        <f t="shared" si="57"/>
         <v>0.21458733205374281</v>
       </c>
       <c r="AF44" s="23">
-        <f>AF11/AF8</f>
+        <f t="shared" si="57"/>
         <v>0.20906647219937419</v>
       </c>
       <c r="AG44" s="23">
-        <f>AG11/AG8</f>
+        <f t="shared" si="57"/>
         <v>0.30304693462768739</v>
       </c>
       <c r="AH44" s="23">
-        <f>AH11/AH8</f>
+        <f t="shared" si="57"/>
         <v>0.28526634149234259</v>
       </c>
       <c r="AI44" s="63">
-        <f>AI11/AI8</f>
+        <f t="shared" si="57"/>
         <v>0.27</v>
       </c>
       <c r="AJ44" s="53">
@@ -13812,7 +13830,7 @@
       </c>
     </row>
     <row r="47" spans="1:43" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="98"/>
+      <c r="A47" s="84"/>
       <c r="B47" s="22" t="s">
         <v>6</v>
       </c>
@@ -13879,7 +13897,7 @@
       <c r="AQ47" s="55"/>
     </row>
     <row r="48" spans="1:43" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="98"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="22" t="s">
         <v>64</v>
       </c>
@@ -13946,7 +13964,7 @@
       <c r="AQ48" s="55"/>
     </row>
     <row r="49" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="98"/>
+      <c r="A49" s="84"/>
       <c r="B49" s="20" t="s">
         <v>65</v>
       </c>
@@ -14013,7 +14031,7 @@
       <c r="AQ49" s="48"/>
     </row>
     <row r="50" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="98"/>
+      <c r="A50" s="84"/>
       <c r="B50" s="20" t="s">
         <v>66</v>
       </c>
@@ -14080,40 +14098,40 @@
       <c r="AQ50" s="48"/>
     </row>
     <row r="51" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="98"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="20" t="s">
         <v>67</v>
       </c>
       <c r="K51" s="20">
-        <f t="shared" ref="K51:Q51" si="37">+SUM(K47:K50)</f>
+        <f t="shared" ref="K51:Q51" si="58">+SUM(K47:K50)</f>
         <v>0</v>
       </c>
       <c r="L51" s="20">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="M51" s="20">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="N51" s="20">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>66666</v>
       </c>
       <c r="O51" s="20">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>59265</v>
       </c>
       <c r="P51" s="20">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>55987</v>
       </c>
       <c r="Q51" s="20">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>58315</v>
       </c>
       <c r="R51" s="20">
-        <f t="shared" ref="R51" si="38">+SUM(R47:R50)</f>
+        <f t="shared" ref="R51" si="59">+SUM(R47:R50)</f>
         <v>59549</v>
       </c>
       <c r="S51" s="20">
@@ -14125,15 +14143,15 @@
         <v>69560</v>
       </c>
       <c r="U51" s="20">
-        <f t="shared" ref="U51:W51" si="39">+SUM(U47:U50)</f>
+        <f t="shared" ref="U51:W51" si="60">+SUM(U47:U50)</f>
         <v>78378</v>
       </c>
       <c r="V51" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="60"/>
         <v>85365</v>
       </c>
       <c r="W51" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="60"/>
         <v>75330</v>
       </c>
       <c r="X51" s="20">
@@ -14146,23 +14164,23 @@
       </c>
       <c r="Z51" s="61"/>
       <c r="AD51" s="20">
-        <f t="shared" ref="AD51" si="40">+SUM(AD47:AD50)</f>
+        <f t="shared" ref="AD51" si="61">+SUM(AD47:AD50)</f>
         <v>66225</v>
       </c>
       <c r="AE51" s="20">
-        <f t="shared" ref="AE51" si="41">+SUM(AE47:AE50)</f>
+        <f t="shared" ref="AE51" si="62">+SUM(AE47:AE50)</f>
         <v>75670</v>
       </c>
       <c r="AF51" s="20">
-        <f t="shared" ref="AF51" si="42">+SUM(AF47:AF50)</f>
+        <f t="shared" ref="AF51" si="63">+SUM(AF47:AF50)</f>
         <v>66666</v>
       </c>
       <c r="AG51" s="20">
-        <f t="shared" ref="AG51:AH51" si="43">+SUM(AG47:AG50)</f>
+        <f t="shared" ref="AG51:AH51" si="64">+SUM(AG47:AG50)</f>
         <v>59549</v>
       </c>
       <c r="AH51" s="20">
-        <f t="shared" si="43"/>
+        <f t="shared" si="64"/>
         <v>85365</v>
       </c>
       <c r="AI51" s="61"/>
@@ -14176,7 +14194,7 @@
       <c r="AQ51" s="48"/>
     </row>
     <row r="52" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="98"/>
+      <c r="A52" s="84"/>
       <c r="B52" s="20" t="s">
         <v>68</v>
       </c>
@@ -14243,7 +14261,7 @@
       <c r="AQ52" s="48"/>
     </row>
     <row r="53" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="98"/>
+      <c r="A53" s="84"/>
       <c r="B53" s="20" t="s">
         <v>69</v>
       </c>
@@ -14310,7 +14328,7 @@
       <c r="AQ53" s="48"/>
     </row>
     <row r="54" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="98"/>
+      <c r="A54" s="84"/>
       <c r="B54" s="20" t="s">
         <v>71</v>
       </c>
@@ -14377,7 +14395,7 @@
       <c r="AQ54" s="48"/>
     </row>
     <row r="55" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="98"/>
+      <c r="A55" s="84"/>
       <c r="B55" s="20" t="s">
         <v>72</v>
       </c>
@@ -14456,7 +14474,7 @@
       <c r="AQ55" s="48"/>
     </row>
     <row r="56" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="98"/>
+      <c r="A56" s="84"/>
       <c r="B56" s="20" t="s">
         <v>73</v>
       </c>
@@ -14523,40 +14541,40 @@
       <c r="AQ56" s="48"/>
     </row>
     <row r="57" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="98"/>
+      <c r="A57" s="84"/>
       <c r="B57" s="20" t="s">
         <v>74</v>
       </c>
       <c r="K57" s="20">
-        <f t="shared" ref="K57:R57" si="44">+SUM(K51:K56)</f>
+        <f t="shared" ref="K57:R57" si="65">+SUM(K51:K56)</f>
         <v>0</v>
       </c>
       <c r="L57" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M57" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="N57" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>165987</v>
       </c>
       <c r="O57" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>146218</v>
       </c>
       <c r="P57" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>169779</v>
       </c>
       <c r="Q57" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>178894</v>
       </c>
       <c r="R57" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>185727</v>
       </c>
       <c r="S57" s="20">
@@ -14568,15 +14586,15 @@
         <v>206688</v>
       </c>
       <c r="U57" s="20">
-        <f t="shared" ref="U57:W57" si="45">+SUM(U51:U56)</f>
+        <f t="shared" ref="U57:W57" si="66">+SUM(U51:U56)</f>
         <v>216274</v>
       </c>
       <c r="V57" s="20">
-        <f t="shared" si="45"/>
+        <f t="shared" si="66"/>
         <v>229623</v>
       </c>
       <c r="W57" s="20">
-        <f t="shared" si="45"/>
+        <f t="shared" si="66"/>
         <v>222844</v>
       </c>
       <c r="X57" s="20">
@@ -14589,23 +14607,23 @@
       </c>
       <c r="Z57" s="61"/>
       <c r="AD57" s="20">
-        <f t="shared" ref="AD57" si="46">+SUM(AD51:AD56)</f>
+        <f t="shared" ref="AD57" si="67">+SUM(AD51:AD56)</f>
         <v>133376</v>
       </c>
       <c r="AE57" s="20">
-        <f t="shared" ref="AE57" si="47">+SUM(AE51:AE56)</f>
+        <f t="shared" ref="AE57" si="68">+SUM(AE51:AE56)</f>
         <v>159316</v>
       </c>
       <c r="AF57" s="20">
-        <f t="shared" ref="AF57" si="48">+SUM(AF51:AF56)</f>
+        <f t="shared" ref="AF57" si="69">+SUM(AF51:AF56)</f>
         <v>165987</v>
       </c>
       <c r="AG57" s="20">
-        <f t="shared" ref="AG57:AH57" si="49">+SUM(AG51:AG56)</f>
+        <f t="shared" ref="AG57:AH57" si="70">+SUM(AG51:AG56)</f>
         <v>185727</v>
       </c>
       <c r="AH57" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>229623</v>
       </c>
       <c r="AI57" s="61"/>
@@ -14619,7 +14637,7 @@
       <c r="AQ57" s="48"/>
     </row>
     <row r="58" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="98"/>
+      <c r="A58" s="84"/>
       <c r="Z58" s="61"/>
       <c r="AI58" s="61"/>
       <c r="AJ58" s="48"/>
@@ -14632,7 +14650,7 @@
       <c r="AQ58" s="48"/>
     </row>
     <row r="59" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="98"/>
+      <c r="A59" s="84"/>
       <c r="B59" s="20" t="s">
         <v>75</v>
       </c>
@@ -14701,7 +14719,7 @@
       <c r="AQ59" s="48"/>
     </row>
     <row r="60" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="98"/>
+      <c r="A60" s="84"/>
       <c r="B60" s="20" t="s">
         <v>70</v>
       </c>
@@ -14768,7 +14786,7 @@
       <c r="AQ60" s="48"/>
     </row>
     <row r="61" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="98"/>
+      <c r="A61" s="84"/>
       <c r="B61" s="20" t="s">
         <v>2687</v>
       </c>
@@ -14847,44 +14865,44 @@
       <c r="AQ61" s="48"/>
     </row>
     <row r="62" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="98"/>
+      <c r="A62" s="84"/>
       <c r="B62" s="20" t="s">
         <v>76</v>
       </c>
       <c r="K62" s="20">
-        <f t="shared" ref="K62:S62" si="50">+SUM(K59:K61)</f>
+        <f t="shared" ref="K62:S62" si="71">+SUM(K59:K61)</f>
         <v>0</v>
       </c>
       <c r="L62" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="M62" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="N62" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="71"/>
         <v>21135</v>
       </c>
       <c r="O62" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="71"/>
         <v>21086</v>
       </c>
       <c r="P62" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="71"/>
         <v>22217</v>
       </c>
       <c r="Q62" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="71"/>
         <v>22687</v>
       </c>
       <c r="R62" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="71"/>
         <v>27026</v>
       </c>
       <c r="S62" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="71"/>
         <v>25381</v>
       </c>
       <c r="T62" s="20">
@@ -14892,15 +14910,15 @@
         <v>29921</v>
       </c>
       <c r="U62" s="20">
-        <f t="shared" ref="U62:W62" si="51">+SUM(U59:U61)</f>
+        <f t="shared" ref="U62:W62" si="72">+SUM(U59:U61)</f>
         <v>30531</v>
       </c>
       <c r="V62" s="20">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>31960</v>
       </c>
       <c r="W62" s="20">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>28101</v>
       </c>
       <c r="X62" s="20">
@@ -14913,23 +14931,23 @@
       </c>
       <c r="Z62" s="61"/>
       <c r="AD62" s="20">
-        <f t="shared" ref="AD62" si="52">+SUM(AD59:AD61)</f>
+        <f t="shared" ref="AD62" si="73">+SUM(AD59:AD61)</f>
         <v>15053</v>
       </c>
       <c r="AE62" s="20">
-        <f t="shared" ref="AE62" si="53">+SUM(AE59:AE61)</f>
+        <f t="shared" ref="AE62" si="74">+SUM(AE59:AE61)</f>
         <v>14981</v>
       </c>
       <c r="AF62" s="20">
-        <f t="shared" ref="AF62" si="54">+SUM(AF59:AF61)</f>
+        <f t="shared" ref="AF62" si="75">+SUM(AF59:AF61)</f>
         <v>21135</v>
       </c>
       <c r="AG62" s="20">
-        <f t="shared" ref="AG62:AH62" si="55">+SUM(AG59:AG61)</f>
+        <f t="shared" ref="AG62:AH62" si="76">+SUM(AG59:AG61)</f>
         <v>27026</v>
       </c>
       <c r="AH62" s="20">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>31960</v>
       </c>
       <c r="AI62" s="61"/>
@@ -14943,7 +14961,7 @@
       <c r="AQ62" s="48"/>
     </row>
     <row r="63" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="98"/>
+      <c r="A63" s="84"/>
       <c r="B63" s="20" t="s">
         <v>70</v>
       </c>
@@ -15010,7 +15028,7 @@
       <c r="AQ63" s="48"/>
     </row>
     <row r="64" spans="1:43" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="98"/>
+      <c r="A64" s="84"/>
       <c r="B64" s="22" t="s">
         <v>77</v>
       </c>
@@ -15077,7 +15095,7 @@
       <c r="AQ64" s="55"/>
     </row>
     <row r="65" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="98"/>
+      <c r="A65" s="84"/>
       <c r="B65" s="20" t="s">
         <v>78</v>
       </c>
@@ -15144,7 +15162,7 @@
       <c r="AQ65" s="48"/>
     </row>
     <row r="66" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="98"/>
+      <c r="A66" s="84"/>
       <c r="B66" s="20" t="s">
         <v>79</v>
       </c>
@@ -15211,44 +15229,44 @@
       <c r="AQ66" s="48"/>
     </row>
     <row r="67" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="98"/>
+      <c r="A67" s="84"/>
       <c r="B67" s="20" t="s">
         <v>80</v>
       </c>
       <c r="K67" s="20">
-        <f t="shared" ref="K67:S67" si="56">+SUM(K62:K66)</f>
+        <f t="shared" ref="K67:S67" si="77">+SUM(K62:K66)</f>
         <v>0</v>
       </c>
       <c r="L67" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="M67" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="N67" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>41108</v>
       </c>
       <c r="O67" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>40990</v>
       </c>
       <c r="P67" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>44012</v>
       </c>
       <c r="Q67" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>54800</v>
       </c>
       <c r="R67" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>60014</v>
       </c>
       <c r="S67" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>59696</v>
       </c>
       <c r="T67" s="20">
@@ -15256,15 +15274,15 @@
         <v>72655</v>
       </c>
       <c r="U67" s="20">
-        <f t="shared" ref="U67:W67" si="57">+SUM(U62:U66)</f>
+        <f t="shared" ref="U67:W67" si="78">+SUM(U62:U66)</f>
         <v>73401</v>
       </c>
       <c r="V67" s="20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>76455</v>
       </c>
       <c r="W67" s="20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>73315</v>
       </c>
       <c r="X67" s="20">
@@ -15277,23 +15295,23 @@
       </c>
       <c r="Z67" s="61"/>
       <c r="AD67" s="20">
-        <f t="shared" ref="AD67" si="58">+SUM(AD62:AD66)</f>
+        <f t="shared" ref="AD67" si="79">+SUM(AD62:AD66)</f>
         <v>32322</v>
       </c>
       <c r="AE67" s="20">
-        <f t="shared" ref="AE67" si="59">+SUM(AE62:AE66)</f>
+        <f t="shared" ref="AE67" si="80">+SUM(AE62:AE66)</f>
         <v>31026</v>
       </c>
       <c r="AF67" s="20">
-        <f t="shared" ref="AF67" si="60">+SUM(AF62:AF66)</f>
+        <f t="shared" ref="AF67" si="81">+SUM(AF62:AF66)</f>
         <v>41108</v>
       </c>
       <c r="AG67" s="20">
-        <f t="shared" ref="AG67:AH67" si="61">+SUM(AG62:AG66)</f>
+        <f t="shared" ref="AG67:AH67" si="82">+SUM(AG62:AG66)</f>
         <v>60014</v>
       </c>
       <c r="AH67" s="20">
-        <f t="shared" si="61"/>
+        <f t="shared" si="82"/>
         <v>76455</v>
       </c>
       <c r="AI67" s="61"/>
@@ -15307,7 +15325,7 @@
       <c r="AQ67" s="48"/>
     </row>
     <row r="69" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="98"/>
+      <c r="A69" s="84"/>
       <c r="B69" s="20" t="s">
         <v>81</v>
       </c>
@@ -15378,51 +15396,51 @@
         <v>82</v>
       </c>
       <c r="N70" s="20">
-        <f>+N69+N67</f>
+        <f t="shared" ref="N70:Y70" si="83">+N69+N67</f>
         <v>165987</v>
       </c>
       <c r="O70" s="20">
-        <f>+O69+O67</f>
+        <f t="shared" si="83"/>
         <v>164218</v>
       </c>
       <c r="P70" s="20">
-        <f>+P69+P67</f>
+        <f t="shared" si="83"/>
         <v>169779</v>
       </c>
       <c r="Q70" s="20">
-        <f>+Q69+Q67</f>
+        <f t="shared" si="83"/>
         <v>178894</v>
       </c>
       <c r="R70" s="20">
-        <f>+R69+R67</f>
+        <f t="shared" si="83"/>
         <v>185727</v>
       </c>
       <c r="S70" s="20">
-        <f>+S69+S67</f>
+        <f t="shared" si="83"/>
         <v>184491</v>
       </c>
       <c r="T70" s="20">
-        <f>+T69+T67</f>
+        <f t="shared" si="83"/>
         <v>206688</v>
       </c>
       <c r="U70" s="20">
-        <f>+U69+U67</f>
+        <f t="shared" si="83"/>
         <v>216274</v>
       </c>
       <c r="V70" s="20">
-        <f>+V69+V67</f>
+        <f t="shared" si="83"/>
         <v>229623</v>
       </c>
       <c r="W70" s="20">
-        <f>+W69+W67</f>
+        <f t="shared" si="83"/>
         <v>222844</v>
       </c>
       <c r="X70" s="20">
-        <f>+X69+X67</f>
+        <f t="shared" si="83"/>
         <v>230238</v>
       </c>
       <c r="Y70" s="20">
-        <f>+Y69+Y67</f>
+        <f t="shared" si="83"/>
         <v>256408</v>
       </c>
       <c r="AD70" s="20">
@@ -15451,55 +15469,55 @@
         <v>83</v>
       </c>
       <c r="N72" s="20">
-        <f>+N57-N67</f>
+        <f t="shared" ref="N72:Y72" si="84">+N57-N67</f>
         <v>124879</v>
       </c>
       <c r="O72" s="20">
-        <f>+O57-O67</f>
+        <f t="shared" si="84"/>
         <v>105228</v>
       </c>
       <c r="P72" s="20">
-        <f>+P57-P67</f>
+        <f t="shared" si="84"/>
         <v>125767</v>
       </c>
       <c r="Q72" s="20">
-        <f>+Q57-Q67</f>
+        <f t="shared" si="84"/>
         <v>124094</v>
       </c>
       <c r="R72" s="20">
-        <f>+R57-R67</f>
+        <f t="shared" si="84"/>
         <v>125713</v>
       </c>
       <c r="S72" s="20">
-        <f>+S57-S67</f>
+        <f t="shared" si="84"/>
         <v>124795</v>
       </c>
       <c r="T72" s="20">
-        <f>+T57-T67</f>
+        <f t="shared" si="84"/>
         <v>134033</v>
       </c>
       <c r="U72" s="20">
-        <f>+U57-U67</f>
+        <f t="shared" si="84"/>
         <v>142873</v>
       </c>
       <c r="V72" s="20">
-        <f>+V57-V67</f>
+        <f t="shared" si="84"/>
         <v>153168</v>
       </c>
       <c r="W72" s="20">
-        <f>+W57-W67</f>
+        <f t="shared" si="84"/>
         <v>149529</v>
       </c>
       <c r="X72" s="20">
-        <f>+X57-X67</f>
+        <f t="shared" si="84"/>
         <v>156763</v>
       </c>
       <c r="Y72" s="20">
-        <f>+Y57-Y67</f>
+        <f t="shared" si="84"/>
         <v>164529</v>
       </c>
       <c r="AD72" s="20">
-        <f t="shared" ref="AD72" si="62">+AD57-AD67</f>
+        <f t="shared" ref="AD72" si="85">+AD57-AD67</f>
         <v>101054</v>
       </c>
       <c r="AE72" s="20">
@@ -15524,55 +15542,55 @@
         <v>84</v>
       </c>
       <c r="N73" s="1">
-        <f>+N72/N20</f>
+        <f t="shared" ref="N73:Y73" si="86">+N72/N20</f>
         <v>44.361989342806396</v>
       </c>
       <c r="O73" s="1">
-        <f>+O72/O20</f>
+        <f t="shared" si="86"/>
         <v>38.615779816513765</v>
       </c>
       <c r="P73" s="1">
-        <f>+P72/P20</f>
+        <f t="shared" si="86"/>
         <v>46.511464497041423</v>
       </c>
       <c r="Q73" s="1">
-        <f>+Q72/Q20</f>
+        <f t="shared" si="86"/>
         <v>46.269202087994032</v>
       </c>
       <c r="R73" s="1">
-        <f>+R72/R20</f>
+        <f t="shared" si="86"/>
         <v>46.78563453665798</v>
       </c>
       <c r="S73" s="1">
-        <f>+S72/S20</f>
+        <f t="shared" si="86"/>
         <v>48.239273289524547</v>
       </c>
       <c r="T73" s="1">
-        <f>+T72/T20</f>
+        <f t="shared" si="86"/>
         <v>52.193535825545169</v>
       </c>
       <c r="U73" s="1">
-        <f>+U72/U20</f>
+        <f t="shared" si="86"/>
         <v>55.463121118012424</v>
       </c>
       <c r="V73" s="1">
-        <f>+V72/V20</f>
+        <f t="shared" si="86"/>
         <v>59.505827505827504</v>
       </c>
       <c r="W73" s="1">
-        <f>+W72/W20</f>
+        <f t="shared" si="86"/>
         <v>58.754027504911591</v>
       </c>
       <c r="X73" s="1">
-        <f>+X72/X20</f>
+        <f t="shared" si="86"/>
         <v>61.863851617995266</v>
       </c>
       <c r="Y73" s="1">
-        <f>+Y72/Y20</f>
+        <f t="shared" si="86"/>
         <v>65.056939501779354</v>
       </c>
       <c r="AD73" s="1">
-        <f t="shared" ref="AD73" si="63">+AD72/AD20</f>
+        <f t="shared" ref="AD73" si="87">+AD72/AD20</f>
         <v>35.407848633496847</v>
       </c>
       <c r="AE73" s="1">
@@ -15605,39 +15623,39 @@
       <c r="I75" s="20"/>
       <c r="J75" s="20"/>
       <c r="K75" s="20">
-        <f t="shared" ref="K75:S75" si="64">+K47+K48</f>
+        <f t="shared" ref="K75:S75" si="88">+K47+K48</f>
         <v>0</v>
       </c>
       <c r="L75" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="M75" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="N75" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="88"/>
         <v>47998</v>
       </c>
       <c r="O75" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="88"/>
         <v>43890</v>
       </c>
       <c r="P75" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="88"/>
         <v>40489</v>
       </c>
       <c r="Q75" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="88"/>
         <v>41776</v>
       </c>
       <c r="R75" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="88"/>
         <v>40738</v>
       </c>
       <c r="S75" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="88"/>
         <v>37439</v>
       </c>
       <c r="T75" s="20">
@@ -15645,15 +15663,15 @@
         <v>53446</v>
       </c>
       <c r="U75" s="20">
-        <f t="shared" ref="U75:W75" si="65">+U47+U48</f>
+        <f t="shared" ref="U75:W75" si="89">+U47+U48</f>
         <v>61123</v>
       </c>
       <c r="V75" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="89"/>
         <v>65403</v>
       </c>
       <c r="W75" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="89"/>
         <v>58120</v>
       </c>
       <c r="X75" s="20">
@@ -15666,23 +15684,23 @@
       </c>
       <c r="Z75" s="61"/>
       <c r="AD75" s="20">
-        <f t="shared" ref="AD75" si="66">+AD47+AD48</f>
+        <f t="shared" ref="AD75" si="90">+AD47+AD48</f>
         <v>54855</v>
       </c>
       <c r="AE75" s="20">
-        <f t="shared" ref="AE75:AF75" si="67">+AE47+AE48</f>
+        <f t="shared" ref="AE75:AF75" si="91">+AE47+AE48</f>
         <v>61954</v>
       </c>
       <c r="AF75" s="20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="91"/>
         <v>47998</v>
       </c>
       <c r="AG75" s="20">
-        <f t="shared" ref="AG75:AH75" si="68">+AG47+AG48</f>
+        <f t="shared" ref="AG75:AH75" si="92">+AG47+AG48</f>
         <v>40738</v>
       </c>
       <c r="AH75" s="20">
-        <f t="shared" si="68"/>
+        <f t="shared" si="92"/>
         <v>65403</v>
       </c>
     </row>
@@ -15699,39 +15717,39 @@
       <c r="I76" s="20"/>
       <c r="J76" s="20"/>
       <c r="K76" s="20">
-        <f t="shared" ref="K76:S76" si="69">+K64</f>
+        <f t="shared" ref="K76:S76" si="93">+K64</f>
         <v>0</v>
       </c>
       <c r="L76" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M76" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="N76" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="O76" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="P76" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="Q76" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="93"/>
         <v>9922</v>
       </c>
       <c r="R76" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="93"/>
         <v>9923</v>
       </c>
       <c r="S76" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="93"/>
         <v>9925</v>
       </c>
       <c r="T76" s="20">
@@ -15739,15 +15757,15 @@
         <v>18382</v>
       </c>
       <c r="U76" s="20">
-        <f t="shared" ref="U76:W76" si="70">+U64</f>
+        <f t="shared" ref="U76:W76" si="94">+U64</f>
         <v>18383</v>
       </c>
       <c r="V76" s="20">
-        <f t="shared" si="70"/>
+        <f t="shared" si="94"/>
         <v>18385</v>
       </c>
       <c r="W76" s="20">
-        <f t="shared" si="70"/>
+        <f t="shared" si="94"/>
         <v>18387</v>
       </c>
       <c r="X76" s="20">
@@ -15759,23 +15777,23 @@
         <v>28823</v>
       </c>
       <c r="AD76" s="20">
-        <f t="shared" ref="AD76" si="71">+AD64</f>
+        <f t="shared" ref="AD76" si="95">+AD64</f>
         <v>0</v>
       </c>
       <c r="AE76" s="20">
-        <f t="shared" ref="AE76:AF76" si="72">+AE64</f>
+        <f t="shared" ref="AE76:AF76" si="96">+AE64</f>
         <v>0</v>
       </c>
       <c r="AF76" s="20">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AG76" s="20">
-        <f t="shared" ref="AG76:AH76" si="73">+AG64</f>
+        <f t="shared" ref="AG76:AH76" si="97">+AG64</f>
         <v>9923</v>
       </c>
       <c r="AH76" s="20">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>18385</v>
       </c>
     </row>
@@ -15792,39 +15810,39 @@
       <c r="I77" s="20"/>
       <c r="J77" s="20"/>
       <c r="K77" s="20">
-        <f t="shared" ref="K77:S77" si="74">+K75-K76</f>
+        <f t="shared" ref="K77:S77" si="98">+K75-K76</f>
         <v>0</v>
       </c>
       <c r="L77" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="M77" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="N77" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>47998</v>
       </c>
       <c r="O77" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>43890</v>
       </c>
       <c r="P77" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>40489</v>
       </c>
       <c r="Q77" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>31854</v>
       </c>
       <c r="R77" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>30815</v>
       </c>
       <c r="S77" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>27514</v>
       </c>
       <c r="T77" s="20">
@@ -15832,15 +15850,15 @@
         <v>35064</v>
       </c>
       <c r="U77" s="20">
-        <f t="shared" ref="U77:W77" si="75">+U75-U76</f>
+        <f t="shared" ref="U77:W77" si="99">+U75-U76</f>
         <v>42740</v>
       </c>
       <c r="V77" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>47018</v>
       </c>
       <c r="W77" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>39733</v>
       </c>
       <c r="X77" s="20">
@@ -15852,28 +15870,28 @@
         <v>42077</v>
       </c>
       <c r="AD77" s="20">
-        <f t="shared" ref="AD77" si="76">+AD75-AD76</f>
+        <f t="shared" ref="AD77" si="100">+AD75-AD76</f>
         <v>54855</v>
       </c>
       <c r="AE77" s="20">
-        <f t="shared" ref="AE77:AF77" si="77">+AE75-AE76</f>
+        <f t="shared" ref="AE77:AF77" si="101">+AE75-AE76</f>
         <v>61954</v>
       </c>
       <c r="AF77" s="20">
-        <f t="shared" si="77"/>
+        <f t="shared" si="101"/>
         <v>47998</v>
       </c>
       <c r="AG77" s="20">
-        <f t="shared" ref="AG77:AH77" si="78">+AG75-AG76</f>
+        <f t="shared" ref="AG77:AH77" si="102">+AG75-AG76</f>
         <v>30815</v>
       </c>
       <c r="AH77" s="20">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>47018</v>
       </c>
     </row>
     <row r="79" spans="1:43" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="97"/>
+      <c r="A79" s="83"/>
       <c r="B79" s="21" t="s">
         <v>85</v>
       </c>
@@ -15928,57 +15946,57 @@
       <c r="AQ79" s="52"/>
     </row>
     <row r="80" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="98"/>
+      <c r="A80" s="84"/>
       <c r="B80" s="20" t="s">
         <v>5</v>
       </c>
       <c r="R80" s="20">
-        <f t="shared" ref="R80:S80" si="79">+R79*R20</f>
+        <f t="shared" ref="R80:S80" si="103">+R79*R20</f>
         <v>322386.26</v>
       </c>
       <c r="S80" s="20">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>619845.19999999995</v>
       </c>
       <c r="T80" s="20">
-        <f>+T79*T20</f>
+        <f t="shared" ref="T80:Y80" si="104">+T79*T20</f>
         <v>734756.16</v>
       </c>
       <c r="U80" s="20">
-        <f>+U79*U20</f>
+        <f t="shared" si="104"/>
         <v>771022.56</v>
       </c>
       <c r="V80" s="20">
-        <f>+V79*V20</f>
+        <f t="shared" si="104"/>
         <v>908364.6</v>
       </c>
       <c r="W80" s="20">
-        <f>+W79*W20</f>
+        <f t="shared" si="104"/>
         <v>1254430.5</v>
       </c>
       <c r="X80" s="20">
-        <f>+X79*X20</f>
+        <f t="shared" si="104"/>
         <v>1315298.0399999998</v>
       </c>
       <c r="Y80" s="20">
-        <f>+Y79*Y20</f>
+        <f t="shared" si="104"/>
         <v>1447700.7600000002</v>
       </c>
       <c r="Z80" s="61"/>
       <c r="AD80" s="20">
-        <f t="shared" ref="AD80:AG80" si="80">+AD79*AD20</f>
+        <f t="shared" ref="AD80:AG80" si="105">+AD79*AD20</f>
         <v>581645.20000000007</v>
       </c>
       <c r="AE80" s="20">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>776441.34</v>
       </c>
       <c r="AF80" s="20">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>966473.95</v>
       </c>
       <c r="AG80" s="20">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>322386.26</v>
       </c>
       <c r="AH80" s="20">
@@ -16000,35 +16018,35 @@
         <v>9</v>
       </c>
       <c r="R81" s="20">
-        <f>+R80-R77</f>
+        <f t="shared" ref="R81:Y81" si="106">+R80-R77</f>
         <v>291571.26</v>
       </c>
       <c r="S81" s="20">
-        <f>+S80-S77</f>
+        <f t="shared" si="106"/>
         <v>592331.19999999995</v>
       </c>
       <c r="T81" s="20">
-        <f>+T80-T77</f>
+        <f t="shared" si="106"/>
         <v>699692.16</v>
       </c>
       <c r="U81" s="20">
-        <f>+U80-U77</f>
+        <f t="shared" si="106"/>
         <v>728282.56</v>
       </c>
       <c r="V81" s="20">
-        <f>+V80-V77</f>
+        <f t="shared" si="106"/>
         <v>861346.6</v>
       </c>
       <c r="W81" s="20">
-        <f>+W80-W77</f>
+        <f t="shared" si="106"/>
         <v>1214697.5</v>
       </c>
       <c r="X81" s="20">
-        <f>+X80-X77</f>
+        <f t="shared" si="106"/>
         <v>1275607.0399999998</v>
       </c>
       <c r="Y81" s="20">
-        <f>+Y80-Y77</f>
+        <f t="shared" si="106"/>
         <v>1405623.7600000002</v>
       </c>
       <c r="AD81" s="20">
@@ -16053,57 +16071,57 @@
       </c>
     </row>
     <row r="83" spans="1:43" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="100"/>
+      <c r="A83" s="86"/>
       <c r="B83" s="36" t="s">
         <v>87</v>
       </c>
       <c r="R83" s="36">
-        <f>+R79/R73</f>
+        <f t="shared" ref="R83:Y83" si="107">+R79/R73</f>
         <v>2.5644623865471354</v>
       </c>
       <c r="S83" s="36">
-        <f>+S79/S73</f>
+        <f t="shared" si="107"/>
         <v>4.9669073280179488</v>
       </c>
       <c r="T83" s="36">
-        <f>+T79/T73</f>
+        <f t="shared" si="107"/>
         <v>5.4819049040161758</v>
       </c>
       <c r="U83" s="36">
-        <f>+U79/U73</f>
+        <f t="shared" si="107"/>
         <v>5.3965589019618818</v>
       </c>
       <c r="V83" s="36">
-        <f>+V79/V73</f>
+        <f t="shared" si="107"/>
         <v>5.9305115951112501</v>
       </c>
       <c r="W83" s="36">
-        <f>+W79/W73</f>
+        <f t="shared" si="107"/>
         <v>8.3892121260758774</v>
       </c>
       <c r="X83" s="36">
-        <f>+X79/X73</f>
+        <f t="shared" si="107"/>
         <v>8.3903602253082674</v>
       </c>
       <c r="Y83" s="36">
-        <f>+Y79/Y73</f>
+        <f t="shared" si="107"/>
         <v>8.7990613204966923</v>
       </c>
       <c r="Z83" s="67"/>
       <c r="AD83" s="36">
-        <f t="shared" ref="AD83:AG83" si="81">+AD79/AD73</f>
+        <f t="shared" ref="AD83:AG83" si="108">+AD79/AD73</f>
         <v>5.7557860153977085</v>
       </c>
       <c r="AE83" s="36">
-        <f t="shared" si="81"/>
+        <f t="shared" si="108"/>
         <v>6.0522358718528331</v>
       </c>
       <c r="AF83" s="36">
-        <f t="shared" si="81"/>
+        <f t="shared" si="108"/>
         <v>7.7392832261629252</v>
       </c>
       <c r="AG83" s="36">
-        <f t="shared" si="81"/>
+        <f t="shared" si="108"/>
         <v>2.5644623865471354</v>
       </c>
       <c r="AH83" s="36">
@@ -16121,40 +16139,40 @@
       <c r="AQ83" s="56"/>
     </row>
     <row r="84" spans="1:43" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="100"/>
+      <c r="A84" s="86"/>
       <c r="B84" s="36" t="s">
         <v>86</v>
       </c>
       <c r="R84" s="36">
-        <f>+R80/SUM(O8:R8)</f>
+        <f t="shared" ref="R84:Y84" si="109">+R80/SUM(O8:R8)</f>
         <v>2.7646773405140257</v>
       </c>
       <c r="S84" s="36">
-        <f>+S80/SUM(P8:S8)</f>
+        <f t="shared" si="109"/>
         <v>5.2822013532629999</v>
       </c>
       <c r="T84" s="36">
-        <f>+T80/SUM(Q8:T8)</f>
+        <f t="shared" si="109"/>
         <v>6.096397865967492</v>
       </c>
       <c r="U84" s="36">
-        <f>+U80/SUM(R8:U8)</f>
+        <f t="shared" si="109"/>
         <v>6.0731956992635192</v>
       </c>
       <c r="V84" s="36">
-        <f>+V80/SUM(S8:V8)</f>
+        <f t="shared" si="109"/>
         <v>6.73351469955968</v>
       </c>
       <c r="W84" s="36">
-        <f>+W80/SUM(T8:W8)</f>
+        <f t="shared" si="109"/>
         <v>8.7899440831885194</v>
       </c>
       <c r="X84" s="36">
-        <f>+X80/SUM(U8:X8)</f>
+        <f t="shared" si="109"/>
         <v>8.7812986700849205</v>
       </c>
       <c r="Y84" s="36">
-        <f>+Y80/SUM(V8:Y8)</f>
+        <f t="shared" si="109"/>
         <v>9.266648914720248</v>
       </c>
       <c r="Z84" s="67"/>
@@ -16189,57 +16207,57 @@
       <c r="AQ84" s="56"/>
     </row>
     <row r="85" spans="1:43" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="100"/>
+      <c r="A85" s="86"/>
       <c r="B85" s="36" t="s">
         <v>88</v>
       </c>
       <c r="R85" s="36">
-        <f>R79/SUM(O19:R19)</f>
+        <f t="shared" ref="R85:Y85" si="110">R79/SUM(O19:R19)</f>
         <v>13.97907873578229</v>
       </c>
       <c r="S85" s="36">
-        <f>S79/SUM(P19:S19)</f>
+        <f t="shared" si="110"/>
         <v>29.763310841901085</v>
       </c>
       <c r="T85" s="36">
-        <f>T79/SUM(Q19:T19)</f>
+        <f t="shared" si="110"/>
         <v>33.231562749516016</v>
       </c>
       <c r="U85" s="36">
-        <f>U79/SUM(R19:U19)</f>
+        <f t="shared" si="110"/>
         <v>26.10028527977375</v>
       </c>
       <c r="V85" s="36">
-        <f>V79/SUM(S19:V19)</f>
+        <f t="shared" si="110"/>
         <v>23.244603959108311</v>
       </c>
       <c r="W85" s="36">
-        <f>W79/SUM(T19:W19)</f>
+        <f t="shared" si="110"/>
         <v>27.636153756820875</v>
       </c>
       <c r="X85" s="36">
-        <f>X79/SUM(U19:X19)</f>
+        <f t="shared" si="110"/>
         <v>25.802884284966055</v>
       </c>
       <c r="Y85" s="36">
-        <f>Y79/SUM(V19:Y19)</f>
+        <f t="shared" si="110"/>
         <v>26.230930133938894</v>
       </c>
       <c r="Z85" s="67"/>
       <c r="AD85" s="36">
-        <f t="shared" ref="AD85:AG85" si="82">+AD79/AD19</f>
+        <f t="shared" ref="AD85:AG85" si="111">+AD79/AD19</f>
         <v>31.465793886935355</v>
       </c>
       <c r="AE85" s="36">
-        <f t="shared" si="82"/>
+        <f t="shared" si="111"/>
         <v>26.639722088794343</v>
       </c>
       <c r="AF85" s="36">
-        <f t="shared" si="82"/>
+        <f t="shared" si="111"/>
         <v>24.548487426974852</v>
       </c>
       <c r="AG85" s="36">
-        <f t="shared" si="82"/>
+        <f t="shared" si="111"/>
         <v>13.895959482758622</v>
       </c>
       <c r="AH85" s="36">
@@ -16262,7 +16280,7 @@
       </c>
     </row>
     <row r="89" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="98"/>
+      <c r="A89" s="84"/>
       <c r="B89" s="20" t="s">
         <v>90</v>
       </c>
@@ -16357,7 +16375,7 @@
       <c r="AQ89" s="48"/>
     </row>
     <row r="90" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="98"/>
+      <c r="A90" s="84"/>
       <c r="B90" s="20" t="s">
         <v>91</v>
       </c>
@@ -16459,7 +16477,7 @@
       <c r="AQ90" s="48"/>
     </row>
     <row r="91" spans="1:43" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="98"/>
+      <c r="A91" s="84"/>
       <c r="B91" s="22" t="s">
         <v>92</v>
       </c>
@@ -16472,88 +16490,88 @@
       <c r="I91" s="40"/>
       <c r="J91" s="40"/>
       <c r="K91" s="40">
-        <f t="shared" ref="K91:Y91" si="83">+K89-K90</f>
+        <f t="shared" ref="K91:Y91" si="112">+K89-K90</f>
         <v>7970</v>
       </c>
       <c r="L91" s="40">
-        <f t="shared" si="83"/>
+        <f t="shared" si="112"/>
         <v>8814</v>
       </c>
       <c r="M91" s="40">
-        <f t="shared" si="83"/>
+        <f t="shared" si="112"/>
         <v>9778</v>
       </c>
       <c r="N91" s="40">
-        <f t="shared" si="83"/>
+        <f t="shared" si="112"/>
         <v>12554</v>
       </c>
       <c r="O91" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="112"/>
         <v>8761</v>
       </c>
       <c r="P91" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="112"/>
         <v>4669</v>
       </c>
       <c r="Q91" s="40">
-        <f t="shared" si="83"/>
+        <f t="shared" si="112"/>
         <v>336</v>
       </c>
       <c r="R91" s="40">
-        <f t="shared" si="83"/>
+        <f t="shared" si="112"/>
         <v>5523</v>
       </c>
       <c r="S91" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="112"/>
         <v>7175</v>
       </c>
       <c r="T91" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="112"/>
         <v>11175</v>
       </c>
       <c r="U91" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="112"/>
         <v>19906</v>
       </c>
       <c r="V91" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="112"/>
         <v>5812</v>
       </c>
       <c r="W91" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="112"/>
         <v>12846</v>
       </c>
       <c r="X91" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="112"/>
         <v>11197</v>
       </c>
       <c r="Y91" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="112"/>
         <v>16466</v>
       </c>
       <c r="Z91" s="60"/>
       <c r="AC91" s="22">
-        <f t="shared" ref="AC91:AH91" si="84">AC89-AC90</f>
+        <f t="shared" ref="AC91:AH91" si="113">AC89-AC90</f>
         <v>15359</v>
       </c>
       <c r="AD91" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="113"/>
         <v>21212</v>
       </c>
       <c r="AE91" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="113"/>
         <v>23632</v>
       </c>
       <c r="AF91" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="113"/>
         <v>39116</v>
       </c>
       <c r="AG91" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="113"/>
         <v>19289</v>
       </c>
       <c r="AH91" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="113"/>
         <v>44068</v>
       </c>
       <c r="AI91" s="60"/>
@@ -16574,47 +16592,47 @@
         <v>2689</v>
       </c>
       <c r="N93" s="20">
-        <f t="shared" ref="N93:X93" si="85">+SUM(K91:N91)</f>
+        <f t="shared" ref="N93:X93" si="114">+SUM(K91:N91)</f>
         <v>39116</v>
       </c>
       <c r="O93" s="20">
-        <f t="shared" si="85"/>
+        <f t="shared" si="114"/>
         <v>39907</v>
       </c>
       <c r="P93" s="20">
-        <f t="shared" si="85"/>
+        <f t="shared" si="114"/>
         <v>35762</v>
       </c>
       <c r="Q93" s="20">
-        <f t="shared" si="85"/>
+        <f t="shared" si="114"/>
         <v>26320</v>
       </c>
       <c r="R93" s="20">
-        <f t="shared" si="85"/>
+        <f t="shared" si="114"/>
         <v>19289</v>
       </c>
       <c r="S93" s="20">
-        <f t="shared" si="85"/>
+        <f t="shared" si="114"/>
         <v>17703</v>
       </c>
       <c r="T93" s="20">
-        <f t="shared" si="85"/>
+        <f t="shared" si="114"/>
         <v>24209</v>
       </c>
       <c r="U93" s="20">
-        <f t="shared" si="85"/>
+        <f t="shared" si="114"/>
         <v>43779</v>
       </c>
       <c r="V93" s="20">
-        <f t="shared" si="85"/>
+        <f t="shared" si="114"/>
         <v>44068</v>
       </c>
       <c r="W93" s="20">
-        <f t="shared" si="85"/>
+        <f t="shared" si="114"/>
         <v>49739</v>
       </c>
       <c r="X93" s="20">
-        <f t="shared" si="85"/>
+        <f t="shared" si="114"/>
         <v>49761</v>
       </c>
       <c r="Y93" s="20">
@@ -16623,52 +16641,52 @@
       </c>
     </row>
     <row r="94" spans="1:43" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="97"/>
+      <c r="A94" s="83"/>
       <c r="B94" s="21" t="s">
         <v>2690</v>
       </c>
       <c r="N94" s="21">
-        <f t="shared" ref="N94:X94" si="86">+N93/N20</f>
+        <f t="shared" ref="N94:X94" si="115">+N93/N20</f>
         <v>13.895559502664298</v>
       </c>
       <c r="O94" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="115"/>
         <v>14.644770642201834</v>
       </c>
       <c r="P94" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="115"/>
         <v>13.225591715976332</v>
       </c>
       <c r="Q94" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="115"/>
         <v>9.8135719612229675</v>
       </c>
       <c r="R94" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="115"/>
         <v>7.1786378861183477</v>
       </c>
       <c r="S94" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="115"/>
         <v>6.8430614611519136</v>
       </c>
       <c r="T94" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="115"/>
         <v>9.4271806853582554</v>
       </c>
       <c r="U94" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="115"/>
         <v>16.99495341614907</v>
       </c>
       <c r="V94" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="115"/>
         <v>17.120435120435122</v>
       </c>
       <c r="W94" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="115"/>
         <v>19.543811394891947</v>
       </c>
       <c r="X94" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="115"/>
         <v>19.63733228097869</v>
       </c>
       <c r="Y94" s="21">
@@ -16686,69 +16704,69 @@
       <c r="AP94" s="52"/>
       <c r="AQ94" s="52"/>
     </row>
-    <row r="95" spans="1:43" s="122" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="121"/>
-      <c r="B95" s="122" t="s">
+    <row r="95" spans="1:43" s="108" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="107"/>
+      <c r="B95" s="108" t="s">
         <v>2688</v>
       </c>
-      <c r="N95" s="122">
-        <f>+N79/N94</f>
+      <c r="N95" s="108">
+        <f t="shared" ref="N95:Y95" si="116">+N79/N94</f>
         <v>0</v>
       </c>
-      <c r="O95" s="122">
-        <f>+O79/O94</f>
+      <c r="O95" s="108">
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="P95" s="122">
-        <f>+P79/P94</f>
+      <c r="P95" s="108">
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="Q95" s="122">
-        <f>+Q79/Q94</f>
+      <c r="Q95" s="108">
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="R95" s="122">
-        <f>+R79/R94</f>
+      <c r="R95" s="108">
+        <f t="shared" si="116"/>
         <v>16.713477111306961</v>
       </c>
-      <c r="S95" s="122">
-        <f>+S79/S94</f>
+      <c r="S95" s="108">
+        <f t="shared" si="116"/>
         <v>35.013568321753375</v>
       </c>
-      <c r="T95" s="122">
-        <f>+T79/T94</f>
+      <c r="T95" s="108">
+        <f t="shared" si="116"/>
         <v>30.350537403444999</v>
       </c>
-      <c r="U95" s="122">
-        <f>+U79/U94</f>
+      <c r="U95" s="108">
+        <f t="shared" si="116"/>
         <v>17.611698759679296</v>
       </c>
-      <c r="V95" s="122">
-        <f>+V79/V94</f>
+      <c r="V95" s="108">
+        <f t="shared" si="116"/>
         <v>20.612793864028315</v>
       </c>
-      <c r="W95" s="122">
-        <f>+W79/W94</f>
+      <c r="W95" s="108">
+        <f t="shared" si="116"/>
         <v>25.22025975592593</v>
       </c>
-      <c r="X95" s="122">
-        <f>+X79/X94</f>
+      <c r="X95" s="108">
+        <f t="shared" si="116"/>
         <v>26.432307228552478</v>
       </c>
-      <c r="Y95" s="122">
-        <f>+Y79/Y94</f>
+      <c r="Y95" s="108">
+        <f t="shared" si="116"/>
         <v>31.253659463310377</v>
       </c>
-      <c r="Z95" s="123"/>
-      <c r="AI95" s="123"/>
-      <c r="AJ95" s="124"/>
-      <c r="AK95" s="124"/>
-      <c r="AL95" s="124"/>
-      <c r="AM95" s="124"/>
-      <c r="AN95" s="124"/>
-      <c r="AO95" s="124"/>
-      <c r="AP95" s="124"/>
-      <c r="AQ95" s="124"/>
+      <c r="Z95" s="109"/>
+      <c r="AI95" s="109"/>
+      <c r="AJ95" s="110"/>
+      <c r="AK95" s="110"/>
+      <c r="AL95" s="110"/>
+      <c r="AM95" s="110"/>
+      <c r="AN95" s="110"/>
+      <c r="AO95" s="110"/>
+      <c r="AP95" s="110"/>
+      <c r="AQ95" s="110"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17533,14 +17551,14 @@
       <c r="B34" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="C34" s="93" t="s">
+      <c r="C34" s="123" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
     </row>
     <row r="35" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="44" t="s">
@@ -18995,14 +19013,14 @@
       <c r="B98" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="C98" s="93" t="s">
+      <c r="C98" s="123" t="s">
         <v>176</v>
       </c>
-      <c r="D98" s="93"/>
-      <c r="E98" s="93"/>
-      <c r="F98" s="93"/>
-      <c r="G98" s="93"/>
-      <c r="H98" s="93"/>
+      <c r="D98" s="123"/>
+      <c r="E98" s="123"/>
+      <c r="F98" s="123"/>
+      <c r="G98" s="123"/>
+      <c r="H98" s="123"/>
     </row>
     <row r="99" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B99" s="44" t="s">
@@ -20848,14 +20866,14 @@
       <c r="B179" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="C179" s="93" t="s">
+      <c r="C179" s="123" t="s">
         <v>176</v>
       </c>
-      <c r="D179" s="93"/>
-      <c r="E179" s="93"/>
-      <c r="F179" s="93"/>
-      <c r="G179" s="93"/>
-      <c r="H179" s="93"/>
+      <c r="D179" s="123"/>
+      <c r="E179" s="123"/>
+      <c r="F179" s="123"/>
+      <c r="G179" s="123"/>
+      <c r="H179" s="123"/>
     </row>
     <row r="180" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B180" s="44" t="s">
@@ -74724,13 +74742,13 @@
       </c>
     </row>
     <row r="2522" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2522" s="94"/>
-      <c r="C2522" s="94"/>
-      <c r="D2522" s="94"/>
-      <c r="E2522" s="94"/>
-      <c r="F2522" s="94"/>
-      <c r="G2522" s="94"/>
-      <c r="H2522" s="94"/>
+      <c r="B2522" s="124"/>
+      <c r="C2522" s="124"/>
+      <c r="D2522" s="124"/>
+      <c r="E2522" s="124"/>
+      <c r="F2522" s="124"/>
+      <c r="G2522" s="124"/>
+      <c r="H2522" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="4">
